--- a/EC-site/ECサイト＿テスト仕様書.xlsx
+++ b/EC-site/ECサイト＿テスト仕様書.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\takahiro.okuma\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\taka\Desktop\env\test-document\EC-site\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E741FA4-943F-42E1-AAC2-7A402B7607DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17685" windowHeight="10740" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テスト仕様書" sheetId="1" r:id="rId1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1394" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1382" uniqueCount="383">
   <si>
     <t>ECサイト　ブラックボックステスト仕様書</t>
     <rPh sb="17" eb="20">
@@ -1061,13 +1062,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>登録がされるかどうか</t>
-    <rPh sb="0" eb="2">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>入力値チェックが働くか</t>
     <rPh sb="0" eb="3">
       <t>ニュウリョクチ</t>
@@ -2813,94 +2807,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t>insert into items values(4, '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF1D1C1D"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>カレーじゃがバター</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF1D1C1D"/>
-        <rFont val="Inherit"/>
-        <family val="2"/>
-      </rPr>
-      <t>', '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF1D1C1D"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>マイルドな味付けのカレーに大きくカットしたポテトをのせた、バターとチーズの風味が食欲をそそるお子様でも楽しめる商品です</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF1D1C1D"/>
-        <rFont val="Inherit"/>
-        <family val="2"/>
-      </rPr>
-      <t>', 1900, 2980, '4.jpg');</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>insert into items values(5, '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF1D1C1D"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>明太バターチーズ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF1D1C1D"/>
-        <rFont val="Inherit"/>
-        <family val="2"/>
-      </rPr>
-      <t>', '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF1D1C1D"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>大きくカットしたポテトにコーンとベーコンをトッピングして、明太クリームソース、バター、チーズを合わせた、家族で楽しめるピザです</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF1D1C1D"/>
-        <rFont val="Inherit"/>
-        <family val="2"/>
-      </rPr>
-      <t>', 1900, 2980, '5.jpg');</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">検索結果に以下の3つが以下の順番で表示されていること
 １．じゃがバターベーコン
 ２．カレーじゃがバター
@@ -3898,14 +3804,982 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>○</t>
+    <r>
+      <t>お届け先情報テーブルの</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TC1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>に書かれている内容を実施</t>
+    </r>
+    <rPh sb="1" eb="2">
+      <t>トド</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>サキジョウホウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ジッシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録がされるか</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お届け先情報が登録されるか</t>
+    <rPh sb="1" eb="2">
+      <t>トド</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・注文確認画面が表示されていること
+・ログインしていること</t>
+    <rPh sb="1" eb="7">
+      <t>チュウモンカクニンガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お届け先情報テーブルのTC1に書かれている期待された結果を確認する</t>
+    <rPh sb="1" eb="2">
+      <t>トド</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>キタイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お届け先情報テーブルのTC2に書かれている期待された結果を確認する</t>
+    <rPh sb="1" eb="2">
+      <t>トド</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>キタイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お届け先情報テーブルのTC3に書かれている期待された結果を確認する</t>
+    <rPh sb="1" eb="2">
+      <t>トド</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>キタイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お届け先情報テーブルのTC4に書かれている期待された結果を確認する</t>
+    <rPh sb="1" eb="2">
+      <t>トド</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>キタイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お届け先情報テーブルのTC5に書かれている期待された結果を確認する</t>
+    <rPh sb="1" eb="2">
+      <t>トド</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>キタイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お届け先情報テーブルのTC6に書かれている期待された結果を確認する</t>
+    <rPh sb="1" eb="2">
+      <t>トド</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>キタイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お届け先情報テーブルのTC7に書かれている期待された結果を確認する</t>
+    <rPh sb="1" eb="2">
+      <t>トド</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>キタイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お届け先情報テーブルのTC8に書かれている期待された結果を確認する</t>
+    <rPh sb="1" eb="2">
+      <t>トド</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>キタイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お届け先情報テーブルのTC9に書かれている期待された結果を確認する</t>
+    <rPh sb="1" eb="2">
+      <t>トド</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>キタイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お届け先情報テーブルのTC10に書かれている期待された結果を確認する</t>
+    <rPh sb="1" eb="2">
+      <t>トド</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>キタイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お届け先情報テーブルのTC11に書かれている期待された結果を確認する</t>
+    <rPh sb="1" eb="2">
+      <t>トド</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>キタイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>お届け先情報テーブルの</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TC2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>に書かれている内容を実施</t>
+    </r>
+    <rPh sb="1" eb="2">
+      <t>トド</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>サキジョウホウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ジッシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>お届け先情報テーブルの</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TC3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>に書かれている内容を実施</t>
+    </r>
+    <rPh sb="1" eb="2">
+      <t>トド</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>サキジョウホウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ジッシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>お届け先情報テーブルの</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TC4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>に書かれている内容を実施</t>
+    </r>
+    <rPh sb="1" eb="2">
+      <t>トド</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>サキジョウホウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ジッシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>お届け先情報テーブルの</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TC5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>に書かれている内容を実施</t>
+    </r>
+    <rPh sb="1" eb="2">
+      <t>トド</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>サキジョウホウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ジッシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>お届け先情報テーブルの</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TC6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>に書かれている内容を実施</t>
+    </r>
+    <rPh sb="1" eb="2">
+      <t>トド</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>サキジョウホウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ジッシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>お届け先情報テーブルの</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TC7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>に書かれている内容を実施</t>
+    </r>
+    <rPh sb="1" eb="2">
+      <t>トド</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>サキジョウホウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ジッシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>お届け先情報テーブルの</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TC8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>に書かれている内容を実施</t>
+    </r>
+    <rPh sb="1" eb="2">
+      <t>トド</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>サキジョウホウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ジッシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>お届け先情報テーブルの</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TC9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>に書かれている内容を実施</t>
+    </r>
+    <rPh sb="1" eb="2">
+      <t>トド</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>サキジョウホウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ジッシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>お届け先情報テーブルの</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TC10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>に書かれている内容を実施</t>
+    </r>
+    <rPh sb="1" eb="2">
+      <t>トド</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>サキジョウホウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ジッシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>お届け先情報テーブルの</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TC11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>に書かれている内容を実施</t>
+    </r>
+    <rPh sb="1" eb="2">
+      <t>トド</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>サキジョウホウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ジッシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⓵お届け先情報テーブルのTC1に書かれている内容を入力
+②「この内容で注文する」ボタンを押下</t>
+    <rPh sb="2" eb="3">
+      <t>トド</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>チュウモン</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>注文完了メールが送信されるかどうか</t>
+    <rPh sb="0" eb="4">
+      <t>チュウモンカンリョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・注文完了画面が表示されていること
+・メールが受信されていること</t>
+    <rPh sb="1" eb="5">
+      <t>チュウモンカンリョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ジュシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システムの動作系
+（正常系）</t>
+    <rPh sb="5" eb="8">
+      <t>ドウサケイ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>セイジョウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⓵お届け先情報テーブルのTC1に書かれている内容を入力
+②お支払い方法で「代金引換」をチェックする
+③「この内容で注文する」ボタンを押下</t>
+    <rPh sb="2" eb="3">
+      <t>トド</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>シハラ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="37" eb="41">
+      <t>ダイキンヒキカエ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>チュウモン</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>代金引換を選択時に、注文テーブルのステータスが「２．未入力」になっているか</t>
+    <rPh sb="0" eb="4">
+      <t>ダイキンヒキカエ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>センタクジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>チュウモン</t>
+    </rPh>
+    <rPh sb="26" eb="29">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>代金引換を選択時に、注文テーブルのステータスが「１．入金済」になっているか</t>
+    <rPh sb="0" eb="4">
+      <t>ダイキンヒキカエ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>センタクジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>チュウモン</t>
+    </rPh>
+    <rPh sb="26" eb="29">
+      <t>ニュウキンズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⓵お届け先情報テーブルのTC2に書かれている内容を入力
+②お支払い方法で「クレジットカード」をチェックする
+③「この内容で注文する」ボタンを押下</t>
+    <rPh sb="2" eb="3">
+      <t>トド</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>シハラ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>チュウモン</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・注文テーブルのステータスが「１．未入金」がになっていること</t>
+    <rPh sb="1" eb="3">
+      <t>チュウモン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・注文テーブルのステータスが「２．入金済」がになっていること</t>
+    <rPh sb="1" eb="3">
+      <t>チュウモン</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>ニュウキンズ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12">
     <font>
       <sz val="11"/>
@@ -3964,15 +4838,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF1D1C1D"/>
       <name val="Inherit"/>
@@ -4002,8 +4867,15 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4037,6 +4909,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4168,15 +5046,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4192,32 +5067,68 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4234,56 +5145,26 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4291,18 +5172,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4580,1069 +5457,1285 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J64"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.375" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="25.375" style="28"/>
-    <col min="2" max="2" width="19.75" style="28" customWidth="1"/>
-    <col min="3" max="3" width="25.375" style="28"/>
-    <col min="4" max="4" width="30.875" style="28" customWidth="1"/>
-    <col min="5" max="5" width="38.25" style="28" customWidth="1"/>
-    <col min="6" max="6" width="46.625" style="28" customWidth="1"/>
-    <col min="7" max="7" width="16.875" style="28" customWidth="1"/>
-    <col min="8" max="8" width="13.75" style="28" customWidth="1"/>
-    <col min="9" max="9" width="17.125" style="28" customWidth="1"/>
-    <col min="10" max="16384" width="25.375" style="28"/>
+    <col min="1" max="1" width="25.375" style="9"/>
+    <col min="2" max="2" width="19.75" style="9" customWidth="1"/>
+    <col min="3" max="3" width="25.375" style="9"/>
+    <col min="4" max="4" width="30.875" style="9" customWidth="1"/>
+    <col min="5" max="5" width="38.25" style="9" customWidth="1"/>
+    <col min="6" max="6" width="46.625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="16.875" style="9" customWidth="1"/>
+    <col min="8" max="8" width="13.75" style="9" customWidth="1"/>
+    <col min="9" max="9" width="17.125" style="9" customWidth="1"/>
+    <col min="10" max="16384" width="25.375" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="27" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="27" t="s">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="31">
+      <c r="I2" s="10">
         <v>44341</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="32.25" customHeight="1">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="33" t="s">
+      <c r="G3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="33" t="s">
+      <c r="H3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="33" t="s">
+      <c r="I3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="34"/>
-    </row>
-    <row r="4" spans="1:10" s="35" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A4" s="24" t="s">
+      <c r="J3" s="13"/>
+    </row>
+    <row r="4" spans="1:10" s="14" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" spans="1:10" s="14" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D5" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="1:10" s="14" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+    </row>
+    <row r="7" spans="1:10" s="14" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="1:10" s="14" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="1:10" s="14" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" spans="1:10" s="14" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" spans="1:10" s="14" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" spans="1:10" s="14" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+    </row>
+    <row r="13" spans="1:10" s="14" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+    </row>
+    <row r="14" spans="1:10" s="14" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+    </row>
+    <row r="15" spans="1:10" s="14" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+    </row>
+    <row r="16" spans="1:10" s="14" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+    </row>
+    <row r="17" spans="1:9" s="14" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+    </row>
+    <row r="18" spans="1:9" s="14" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+    </row>
+    <row r="19" spans="1:9" s="14" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="E19" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="F19" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+    </row>
+    <row r="20" spans="1:9" s="14" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A20" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+    </row>
+    <row r="21" spans="1:9" s="14" customFormat="1" ht="76.5" customHeight="1">
+      <c r="A21" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+    </row>
+    <row r="22" spans="1:9" s="14" customFormat="1" ht="76.5" customHeight="1">
+      <c r="A22" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="E22" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="F4" s="24" t="s">
-        <v>198</v>
-      </c>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-    </row>
-    <row r="5" spans="1:10" s="35" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A5" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="24" t="s">
+      <c r="F22" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+    </row>
+    <row r="23" spans="1:9" s="14" customFormat="1" ht="76.5" customHeight="1">
+      <c r="A23" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+    </row>
+    <row r="24" spans="1:9" s="14" customFormat="1" ht="88.5" customHeight="1">
+      <c r="A24" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+    </row>
+    <row r="25" spans="1:9" s="14" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A25" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+    </row>
+    <row r="26" spans="1:9" s="14" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A26" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+    </row>
+    <row r="27" spans="1:9" s="14" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A27" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+    </row>
+    <row r="28" spans="1:9" s="14" customFormat="1" ht="90.75" customHeight="1">
+      <c r="A28" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+    </row>
+    <row r="29" spans="1:9" s="14" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A29" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+    </row>
+    <row r="30" spans="1:9" s="14" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A30" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+    </row>
+    <row r="31" spans="1:9" s="14" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A31" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+    </row>
+    <row r="32" spans="1:9" s="14" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A32" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+    </row>
+    <row r="33" spans="1:9" s="14" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A33" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+    </row>
+    <row r="34" spans="1:9" s="14" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A34" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+    </row>
+    <row r="35" spans="1:9" s="14" customFormat="1" ht="87" customHeight="1">
+      <c r="A35" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+    </row>
+    <row r="36" spans="1:9" s="14" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A36" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+    </row>
+    <row r="37" spans="1:9" s="14" customFormat="1" ht="128.25" customHeight="1">
+      <c r="A37" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+    </row>
+    <row r="38" spans="1:9" s="14" customFormat="1" ht="71.25" customHeight="1">
+      <c r="A38" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+    </row>
+    <row r="39" spans="1:9" s="14" customFormat="1" ht="130.5" customHeight="1">
+      <c r="A39" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+    </row>
+    <row r="40" spans="1:9" s="14" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A40" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+    </row>
+    <row r="41" spans="1:9" s="14" customFormat="1" ht="68.25" customHeight="1">
+      <c r="A41" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+    </row>
+    <row r="42" spans="1:9" s="14" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A42" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+    </row>
+    <row r="43" spans="1:9" s="14" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A43" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="B43" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="C5" s="24" t="s">
-        <v>197</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>233</v>
-      </c>
-      <c r="E5" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="F5" s="24" t="s">
-        <v>199</v>
-      </c>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-    </row>
-    <row r="6" spans="1:10" s="35" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A6" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="24" t="s">
+      <c r="C43" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+    </row>
+    <row r="44" spans="1:9" s="14" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A44" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="B44" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="C6" s="24" t="s">
-        <v>197</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>233</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>219</v>
-      </c>
-      <c r="F6" s="24" t="s">
-        <v>200</v>
-      </c>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-    </row>
-    <row r="7" spans="1:10" s="35" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A7" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="24" t="s">
+      <c r="C44" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+    </row>
+    <row r="45" spans="1:9" s="14" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A45" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="B45" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="C7" s="24" t="s">
-        <v>197</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>233</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>220</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-    </row>
-    <row r="8" spans="1:10" s="35" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A8" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="24" t="s">
+      <c r="C45" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+    </row>
+    <row r="46" spans="1:9" s="14" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A46" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="B46" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="C8" s="24" t="s">
-        <v>197</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>233</v>
-      </c>
-      <c r="E8" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="F8" s="24" t="s">
-        <v>202</v>
-      </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-    </row>
-    <row r="9" spans="1:10" s="35" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A9" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="24" t="s">
+      <c r="C46" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+    </row>
+    <row r="47" spans="1:9" s="14" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A47" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="B47" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="C9" s="24" t="s">
-        <v>197</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>233</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>222</v>
-      </c>
-      <c r="F9" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-    </row>
-    <row r="10" spans="1:10" s="35" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A10" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="24" t="s">
+      <c r="C47" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+    </row>
+    <row r="48" spans="1:9" s="14" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A48" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="B48" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="C10" s="24" t="s">
-        <v>197</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>233</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>223</v>
-      </c>
-      <c r="F10" s="24" t="s">
-        <v>204</v>
-      </c>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-    </row>
-    <row r="11" spans="1:10" s="35" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A11" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="24" t="s">
+      <c r="C48" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+    </row>
+    <row r="49" spans="1:9" s="14" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A49" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="B49" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="C11" s="24" t="s">
-        <v>197</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>233</v>
-      </c>
-      <c r="E11" s="24" t="s">
-        <v>224</v>
-      </c>
-      <c r="F11" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-    </row>
-    <row r="12" spans="1:10" s="35" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A12" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="24" t="s">
+      <c r="C49" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+    </row>
+    <row r="50" spans="1:9" s="14" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A50" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="B50" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="C12" s="24" t="s">
-        <v>197</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>234</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>225</v>
-      </c>
-      <c r="F12" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-    </row>
-    <row r="13" spans="1:10" s="35" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A13" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="24" t="s">
+      <c r="C50" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+    </row>
+    <row r="51" spans="1:9" s="14" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A51" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="B51" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="C13" s="24" t="s">
-        <v>197</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>233</v>
-      </c>
-      <c r="E13" s="24" t="s">
-        <v>226</v>
-      </c>
-      <c r="F13" s="24" t="s">
-        <v>207</v>
-      </c>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-    </row>
-    <row r="14" spans="1:10" s="35" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="24" t="s">
+      <c r="C51" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+    </row>
+    <row r="52" spans="1:9" s="14" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A52" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="B52" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="C14" s="24" t="s">
-        <v>197</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>233</v>
-      </c>
-      <c r="E14" s="24" t="s">
-        <v>227</v>
-      </c>
-      <c r="F14" s="24" t="s">
-        <v>208</v>
-      </c>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-    </row>
-    <row r="15" spans="1:10" s="35" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A15" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>195</v>
-      </c>
-      <c r="C15" s="24" t="s">
-        <v>197</v>
-      </c>
-      <c r="D15" s="24" t="s">
-        <v>233</v>
-      </c>
-      <c r="E15" s="24" t="s">
-        <v>228</v>
-      </c>
-      <c r="F15" s="24" t="s">
-        <v>209</v>
-      </c>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-    </row>
-    <row r="16" spans="1:10" s="35" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A16" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>195</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>197</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>233</v>
-      </c>
-      <c r="E16" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="F16" s="24" t="s">
-        <v>210</v>
-      </c>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-    </row>
-    <row r="17" spans="1:9" s="35" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A17" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>195</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>197</v>
-      </c>
-      <c r="D17" s="24" t="s">
-        <v>233</v>
-      </c>
-      <c r="E17" s="24" t="s">
-        <v>230</v>
-      </c>
-      <c r="F17" s="24" t="s">
-        <v>211</v>
-      </c>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-    </row>
-    <row r="18" spans="1:9" s="35" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A18" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="24" t="s">
-        <v>195</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>197</v>
-      </c>
-      <c r="D18" s="24" t="s">
-        <v>233</v>
-      </c>
-      <c r="E18" s="24" t="s">
-        <v>231</v>
-      </c>
-      <c r="F18" s="24" t="s">
-        <v>212</v>
-      </c>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-    </row>
-    <row r="19" spans="1:9" s="35" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A19" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="24" t="s">
-        <v>213</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>214</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>215</v>
-      </c>
-      <c r="E19" s="24" t="s">
-        <v>236</v>
-      </c>
-      <c r="F19" s="24" t="s">
-        <v>216</v>
-      </c>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-    </row>
-    <row r="20" spans="1:9" s="35" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A20" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="24" t="s">
-        <v>213</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>232</v>
-      </c>
-      <c r="D20" s="24" t="s">
-        <v>239</v>
-      </c>
-      <c r="E20" s="24" t="s">
-        <v>240</v>
-      </c>
-      <c r="F20" s="24" t="s">
-        <v>237</v>
-      </c>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-    </row>
-    <row r="21" spans="1:9" s="35" customFormat="1" ht="76.5" customHeight="1">
-      <c r="A21" s="24" t="s">
-        <v>238</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>261</v>
-      </c>
-      <c r="D21" s="39" t="s">
-        <v>267</v>
-      </c>
-      <c r="E21" s="24" t="s">
-        <v>217</v>
-      </c>
-      <c r="F21" s="24" t="s">
-        <v>264</v>
-      </c>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-    </row>
-    <row r="22" spans="1:9" s="35" customFormat="1" ht="76.5" customHeight="1">
-      <c r="A22" s="24" t="s">
-        <v>238</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>260</v>
-      </c>
-      <c r="C22" s="24" t="s">
-        <v>262</v>
-      </c>
-      <c r="D22" s="24" t="s">
-        <v>268</v>
-      </c>
-      <c r="E22" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="F22" s="24" t="s">
-        <v>265</v>
-      </c>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-    </row>
-    <row r="23" spans="1:9" s="35" customFormat="1" ht="76.5" customHeight="1">
-      <c r="A23" s="24" t="s">
-        <v>238</v>
-      </c>
-      <c r="B23" s="24" t="s">
-        <v>260</v>
-      </c>
-      <c r="C23" s="24" t="s">
-        <v>263</v>
-      </c>
-      <c r="D23" s="39" t="s">
-        <v>267</v>
-      </c>
-      <c r="E23" s="24" t="s">
-        <v>219</v>
-      </c>
-      <c r="F23" s="24" t="s">
-        <v>266</v>
-      </c>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-    </row>
-    <row r="24" spans="1:9" s="35" customFormat="1" ht="88.5" customHeight="1">
-      <c r="A24" s="24" t="s">
-        <v>238</v>
-      </c>
-      <c r="B24" s="24" t="s">
-        <v>269</v>
-      </c>
-      <c r="C24" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="D24" s="24" t="s">
-        <v>272</v>
-      </c>
-      <c r="E24" s="24" t="s">
-        <v>273</v>
-      </c>
-      <c r="F24" s="24" t="s">
-        <v>276</v>
-      </c>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-    </row>
-    <row r="25" spans="1:9" s="35" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A25" s="24" t="s">
-        <v>238</v>
-      </c>
-      <c r="B25" s="24" t="s">
-        <v>269</v>
-      </c>
-      <c r="C25" s="24" t="s">
-        <v>271</v>
-      </c>
-      <c r="D25" s="24" t="s">
-        <v>272</v>
-      </c>
-      <c r="E25" s="24" t="s">
-        <v>275</v>
-      </c>
-      <c r="F25" s="24" t="s">
-        <v>274</v>
-      </c>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-    </row>
-    <row r="26" spans="1:9" s="35" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A26" s="24" t="s">
-        <v>277</v>
-      </c>
-      <c r="B26" s="24" t="s">
-        <v>269</v>
-      </c>
-      <c r="C26" s="24" t="s">
-        <v>278</v>
-      </c>
-      <c r="D26" s="24" t="s">
-        <v>279</v>
-      </c>
-      <c r="E26" s="24" t="s">
-        <v>280</v>
-      </c>
-      <c r="F26" s="24" t="s">
-        <v>281</v>
-      </c>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-    </row>
-    <row r="27" spans="1:9" s="35" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A27" s="24" t="s">
-        <v>282</v>
-      </c>
-      <c r="B27" s="24" t="s">
-        <v>269</v>
-      </c>
-      <c r="C27" s="24" t="s">
-        <v>283</v>
-      </c>
-      <c r="D27" s="24" t="s">
-        <v>284</v>
-      </c>
-      <c r="E27" s="24" t="s">
-        <v>285</v>
-      </c>
-      <c r="F27" s="24" t="s">
-        <v>286</v>
-      </c>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-    </row>
-    <row r="28" spans="1:9" s="35" customFormat="1" ht="90.75" customHeight="1">
-      <c r="A28" s="24" t="s">
-        <v>282</v>
-      </c>
-      <c r="B28" s="24" t="s">
-        <v>269</v>
-      </c>
-      <c r="C28" s="24" t="s">
-        <v>296</v>
-      </c>
-      <c r="D28" s="24" t="s">
-        <v>284</v>
-      </c>
-      <c r="E28" s="24" t="s">
-        <v>287</v>
-      </c>
-      <c r="F28" s="24" t="s">
-        <v>290</v>
-      </c>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-    </row>
-    <row r="29" spans="1:9" s="35" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A29" s="24" t="s">
-        <v>291</v>
-      </c>
-      <c r="B29" s="24" t="s">
-        <v>269</v>
-      </c>
-      <c r="C29" s="24" t="s">
-        <v>297</v>
-      </c>
-      <c r="D29" s="24" t="s">
-        <v>284</v>
-      </c>
-      <c r="E29" s="24" t="s">
-        <v>292</v>
-      </c>
-      <c r="F29" s="24" t="s">
-        <v>294</v>
-      </c>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
-    </row>
-    <row r="30" spans="1:9" s="35" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A30" s="24" t="s">
-        <v>291</v>
-      </c>
-      <c r="B30" s="24" t="s">
-        <v>269</v>
-      </c>
-      <c r="C30" s="24" t="s">
-        <v>297</v>
-      </c>
-      <c r="D30" s="24" t="s">
-        <v>284</v>
-      </c>
-      <c r="E30" s="24" t="s">
-        <v>293</v>
-      </c>
-      <c r="F30" s="24" t="s">
-        <v>295</v>
-      </c>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
-    </row>
-    <row r="31" spans="1:9" s="35" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A31" s="24" t="s">
-        <v>291</v>
-      </c>
-      <c r="B31" s="24" t="s">
-        <v>269</v>
-      </c>
-      <c r="C31" s="24" t="s">
-        <v>298</v>
-      </c>
-      <c r="D31" s="24" t="s">
-        <v>299</v>
-      </c>
-      <c r="E31" s="24" t="s">
-        <v>300</v>
-      </c>
-      <c r="F31" s="24" t="s">
-        <v>301</v>
-      </c>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
-    </row>
-    <row r="32" spans="1:9" s="35" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A32" s="24" t="s">
-        <v>291</v>
-      </c>
-      <c r="B32" s="24" t="s">
-        <v>269</v>
-      </c>
-      <c r="C32" s="24" t="s">
-        <v>298</v>
-      </c>
-      <c r="D32" s="24" t="s">
-        <v>299</v>
-      </c>
-      <c r="E32" s="24" t="s">
-        <v>302</v>
-      </c>
-      <c r="F32" s="24" t="s">
-        <v>303</v>
-      </c>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="24"/>
-    </row>
-    <row r="33" spans="1:9" s="35" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A33" s="24" t="s">
-        <v>291</v>
-      </c>
-      <c r="B33" s="24" t="s">
-        <v>269</v>
-      </c>
-      <c r="C33" s="24" t="s">
-        <v>304</v>
-      </c>
-      <c r="D33" s="24" t="s">
-        <v>299</v>
-      </c>
-      <c r="E33" s="24" t="s">
-        <v>305</v>
-      </c>
-      <c r="F33" s="24" t="s">
-        <v>306</v>
-      </c>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="24"/>
-    </row>
-    <row r="34" spans="1:9" s="35" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A34" s="24" t="s">
-        <v>307</v>
-      </c>
-      <c r="B34" s="24" t="s">
-        <v>269</v>
-      </c>
-      <c r="C34" s="24" t="s">
-        <v>309</v>
-      </c>
-      <c r="D34" s="24" t="s">
-        <v>308</v>
-      </c>
-      <c r="E34" s="24" t="s">
-        <v>310</v>
-      </c>
-      <c r="F34" s="24" t="s">
-        <v>311</v>
-      </c>
-      <c r="G34" s="24"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="24"/>
-    </row>
-    <row r="35" spans="1:9" s="35" customFormat="1" ht="87" customHeight="1">
-      <c r="A35" s="24" t="s">
-        <v>307</v>
-      </c>
-      <c r="B35" s="24" t="s">
-        <v>269</v>
-      </c>
-      <c r="C35" s="24" t="s">
-        <v>312</v>
-      </c>
-      <c r="D35" s="24" t="s">
-        <v>313</v>
-      </c>
-      <c r="E35" s="24" t="s">
-        <v>310</v>
-      </c>
-      <c r="F35" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="G35" s="24"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="24"/>
-    </row>
-    <row r="36" spans="1:9" s="35" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A36" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="B36" s="24" t="s">
-        <v>269</v>
-      </c>
-      <c r="C36" s="24" t="s">
-        <v>316</v>
-      </c>
-      <c r="D36" s="24" t="s">
-        <v>317</v>
-      </c>
-      <c r="E36" s="24" t="s">
-        <v>318</v>
-      </c>
-      <c r="F36" s="24" t="s">
-        <v>319</v>
-      </c>
-      <c r="G36" s="24"/>
-      <c r="H36" s="24"/>
-      <c r="I36" s="24"/>
-    </row>
-    <row r="37" spans="1:9" s="35" customFormat="1" ht="128.25" customHeight="1">
-      <c r="A37" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="B37" s="24" t="s">
-        <v>269</v>
-      </c>
-      <c r="C37" s="24" t="s">
-        <v>320</v>
-      </c>
-      <c r="D37" s="24" t="s">
-        <v>321</v>
-      </c>
-      <c r="E37" s="24" t="s">
-        <v>318</v>
-      </c>
-      <c r="F37" s="24" t="s">
-        <v>322</v>
-      </c>
-      <c r="G37" s="24"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="24"/>
-    </row>
-    <row r="38" spans="1:9" s="35" customFormat="1" ht="71.25" customHeight="1">
-      <c r="A38" s="24" t="s">
-        <v>323</v>
-      </c>
-      <c r="B38" s="24" t="s">
-        <v>269</v>
-      </c>
-      <c r="C38" s="24" t="s">
-        <v>324</v>
-      </c>
-      <c r="D38" s="24" t="s">
-        <v>325</v>
-      </c>
-      <c r="E38" s="24" t="s">
-        <v>326</v>
-      </c>
-      <c r="F38" s="24" t="s">
-        <v>327</v>
-      </c>
-      <c r="G38" s="24"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="24"/>
-    </row>
-    <row r="39" spans="1:9" s="35" customFormat="1" ht="130.5" customHeight="1">
-      <c r="A39" s="24" t="s">
-        <v>323</v>
-      </c>
-      <c r="B39" s="24" t="s">
-        <v>269</v>
-      </c>
-      <c r="C39" s="24" t="s">
-        <v>328</v>
-      </c>
-      <c r="D39" s="24" t="s">
-        <v>329</v>
-      </c>
-      <c r="E39" s="24" t="s">
-        <v>330</v>
-      </c>
-      <c r="F39" s="24" t="s">
-        <v>322</v>
-      </c>
-      <c r="G39" s="24"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="24"/>
-    </row>
-    <row r="40" spans="1:9" s="35" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A40" s="24" t="s">
-        <v>331</v>
-      </c>
-      <c r="B40" s="24" t="s">
-        <v>269</v>
-      </c>
-      <c r="C40" s="24" t="s">
-        <v>332</v>
-      </c>
-      <c r="D40" s="24" t="s">
+      <c r="C52" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+    </row>
+    <row r="53" spans="1:9" s="14" customFormat="1" ht="66.75" customHeight="1">
+      <c r="A53" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="E40" s="24" t="s">
-        <v>333</v>
-      </c>
-      <c r="F40" s="24" t="s">
-        <v>334</v>
-      </c>
-      <c r="G40" s="24"/>
-      <c r="H40" s="24"/>
-      <c r="I40" s="24"/>
-    </row>
-    <row r="41" spans="1:9" s="35" customFormat="1" ht="68.25" customHeight="1">
-      <c r="A41" s="24" t="s">
-        <v>331</v>
-      </c>
-      <c r="B41" s="24" t="s">
-        <v>269</v>
-      </c>
-      <c r="C41" s="24" t="s">
-        <v>332</v>
-      </c>
-      <c r="D41" s="24" t="s">
-        <v>336</v>
-      </c>
-      <c r="E41" s="24" t="s">
-        <v>333</v>
-      </c>
-      <c r="F41" s="24" t="s">
-        <v>337</v>
-      </c>
-      <c r="G41" s="24"/>
-      <c r="H41" s="24"/>
-      <c r="I41" s="24"/>
-    </row>
-    <row r="42" spans="1:9" s="35" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A42" s="24" t="s">
-        <v>338</v>
-      </c>
-      <c r="B42" s="24"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="24"/>
-      <c r="H42" s="24"/>
-      <c r="I42" s="24"/>
-    </row>
-    <row r="43" spans="1:9" s="35" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A43" s="24"/>
-      <c r="B43" s="24"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="24"/>
-      <c r="H43" s="24"/>
-      <c r="I43" s="24"/>
-    </row>
-    <row r="44" spans="1:9" s="35" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A44" s="24"/>
-      <c r="B44" s="24"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="24"/>
-      <c r="H44" s="24"/>
-      <c r="I44" s="24"/>
-    </row>
-    <row r="45" spans="1:9" s="35" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A45" s="24"/>
-      <c r="B45" s="24"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="24"/>
-      <c r="H45" s="24"/>
-      <c r="I45" s="24"/>
-    </row>
-    <row r="46" spans="1:9" s="35" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A46" s="24"/>
-      <c r="B46" s="24"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="24"/>
-      <c r="I46" s="24"/>
-    </row>
-    <row r="47" spans="1:9" s="35" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A47" s="24"/>
-      <c r="B47" s="24"/>
-      <c r="C47" s="24"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="24"/>
-      <c r="H47" s="24"/>
-      <c r="I47" s="24"/>
-    </row>
-    <row r="48" spans="1:9" s="35" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A48" s="24"/>
-      <c r="B48" s="24"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="24"/>
-      <c r="H48" s="24"/>
-      <c r="I48" s="24"/>
-    </row>
-    <row r="49" spans="1:9" s="35" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A49" s="24"/>
-      <c r="B49" s="24"/>
-      <c r="C49" s="24"/>
-      <c r="D49" s="24"/>
-      <c r="E49" s="24"/>
-      <c r="F49" s="24"/>
-      <c r="G49" s="24"/>
-      <c r="H49" s="24"/>
-      <c r="I49" s="24"/>
-    </row>
-    <row r="50" spans="1:9" s="35" customFormat="1" ht="42" customHeight="1"/>
-    <row r="62" spans="1:9">
-      <c r="C62" s="21" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
-      <c r="C63" s="21" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
-      <c r="C64" s="21" t="s">
-        <v>289</v>
-      </c>
+      <c r="B53" s="41" t="s">
+        <v>376</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+    </row>
+    <row r="54" spans="1:9" s="14" customFormat="1" ht="76.5" customHeight="1">
+      <c r="A54" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+    </row>
+    <row r="55" spans="1:9" s="14" customFormat="1" ht="86.25" customHeight="1">
+      <c r="A55" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5654,11 +6747,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:BB53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M46" sqref="M46"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27" customHeight="1"/>
@@ -5670,31 +6763,31 @@
   <sheetData>
     <row r="1" spans="1:17" ht="27" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:17" ht="27" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
     </row>
     <row r="3" spans="1:17" ht="16.5" customHeight="1" thickTop="1">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="8"/>
+      <c r="B3" s="32"/>
       <c r="C3" s="2" t="s">
         <v>20</v>
       </c>
@@ -6400,7 +7493,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="16.5" customHeight="1">
+    <row r="17" spans="1:54" ht="16.5" customHeight="1">
       <c r="A17" s="2" t="s">
         <v>37</v>
       </c>
@@ -6453,7 +7546,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="16.5" customHeight="1">
+    <row r="18" spans="1:54" ht="16.5" customHeight="1">
       <c r="A18" s="2" t="s">
         <v>38</v>
       </c>
@@ -6506,30 +7599,67 @@
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:17" s="3" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A19" s="17"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
-    </row>
-    <row r="20" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A20" s="11" t="s">
+    <row r="19" spans="1:54" s="3" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A19" s="29"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="15"/>
+      <c r="S19" s="15"/>
+      <c r="T19" s="15"/>
+      <c r="U19" s="15"/>
+      <c r="V19" s="15"/>
+      <c r="W19" s="15"/>
+      <c r="X19" s="15"/>
+      <c r="Y19" s="15"/>
+      <c r="Z19" s="15"/>
+      <c r="AA19" s="15"/>
+      <c r="AB19" s="15"/>
+      <c r="AC19" s="15"/>
+      <c r="AD19" s="15"/>
+      <c r="AE19" s="15"/>
+      <c r="AF19" s="15"/>
+      <c r="AG19" s="15"/>
+      <c r="AH19" s="15"/>
+      <c r="AI19" s="15"/>
+      <c r="AJ19" s="15"/>
+      <c r="AK19" s="15"/>
+      <c r="AL19" s="15"/>
+      <c r="AM19" s="15"/>
+      <c r="AN19" s="15"/>
+      <c r="AO19" s="15"/>
+      <c r="AP19" s="15"/>
+      <c r="AQ19" s="15"/>
+      <c r="AR19" s="15"/>
+      <c r="AS19" s="15"/>
+      <c r="AT19" s="15"/>
+      <c r="AU19" s="15"/>
+      <c r="AV19" s="15"/>
+      <c r="AW19" s="15"/>
+      <c r="AX19" s="15"/>
+      <c r="AY19" s="15"/>
+      <c r="AZ19" s="15"/>
+      <c r="BA19" s="15"/>
+      <c r="BB19" s="15"/>
+    </row>
+    <row r="20" spans="1:54" ht="16.5" customHeight="1">
+      <c r="A20" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="12"/>
+      <c r="B20" s="37"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -6545,12 +7675,49 @@
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
-    </row>
-    <row r="21" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A21" s="19" t="s">
+      <c r="R20" s="15"/>
+      <c r="S20" s="15"/>
+      <c r="T20" s="15"/>
+      <c r="U20" s="15"/>
+      <c r="V20" s="15"/>
+      <c r="W20" s="15"/>
+      <c r="X20" s="15"/>
+      <c r="Y20" s="15"/>
+      <c r="Z20" s="15"/>
+      <c r="AA20" s="15"/>
+      <c r="AB20" s="15"/>
+      <c r="AC20" s="15"/>
+      <c r="AD20" s="15"/>
+      <c r="AE20" s="15"/>
+      <c r="AF20" s="15"/>
+      <c r="AG20" s="15"/>
+      <c r="AH20" s="15"/>
+      <c r="AI20" s="15"/>
+      <c r="AJ20" s="15"/>
+      <c r="AK20" s="15"/>
+      <c r="AL20" s="15"/>
+      <c r="AM20" s="15"/>
+      <c r="AN20" s="15"/>
+      <c r="AO20" s="15"/>
+      <c r="AP20" s="15"/>
+      <c r="AQ20" s="15"/>
+      <c r="AR20" s="15"/>
+      <c r="AS20" s="15"/>
+      <c r="AT20" s="15"/>
+      <c r="AU20" s="15"/>
+      <c r="AV20" s="15"/>
+      <c r="AW20" s="15"/>
+      <c r="AX20" s="15"/>
+      <c r="AY20" s="15"/>
+      <c r="AZ20" s="15"/>
+      <c r="BA20" s="15"/>
+      <c r="BB20" s="15"/>
+    </row>
+    <row r="21" spans="1:54" ht="16.5" customHeight="1">
+      <c r="A21" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="6"/>
+      <c r="B21" s="25"/>
       <c r="C21" s="1" t="s">
         <v>47</v>
       </c>
@@ -6596,12 +7763,49 @@
       <c r="Q21" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A22" s="19" t="s">
+      <c r="R21" s="15"/>
+      <c r="S21" s="15"/>
+      <c r="T21" s="15"/>
+      <c r="U21" s="15"/>
+      <c r="V21" s="15"/>
+      <c r="W21" s="15"/>
+      <c r="X21" s="15"/>
+      <c r="Y21" s="15"/>
+      <c r="Z21" s="15"/>
+      <c r="AA21" s="15"/>
+      <c r="AB21" s="15"/>
+      <c r="AC21" s="15"/>
+      <c r="AD21" s="15"/>
+      <c r="AE21" s="15"/>
+      <c r="AF21" s="15"/>
+      <c r="AG21" s="15"/>
+      <c r="AH21" s="15"/>
+      <c r="AI21" s="15"/>
+      <c r="AJ21" s="15"/>
+      <c r="AK21" s="15"/>
+      <c r="AL21" s="15"/>
+      <c r="AM21" s="15"/>
+      <c r="AN21" s="15"/>
+      <c r="AO21" s="15"/>
+      <c r="AP21" s="15"/>
+      <c r="AQ21" s="15"/>
+      <c r="AR21" s="15"/>
+      <c r="AS21" s="15"/>
+      <c r="AT21" s="15"/>
+      <c r="AU21" s="15"/>
+      <c r="AV21" s="15"/>
+      <c r="AW21" s="15"/>
+      <c r="AX21" s="15"/>
+      <c r="AY21" s="15"/>
+      <c r="AZ21" s="15"/>
+      <c r="BA21" s="15"/>
+      <c r="BB21" s="15"/>
+    </row>
+    <row r="22" spans="1:54" ht="16.5" customHeight="1">
+      <c r="A22" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="B22" s="6"/>
+      <c r="B22" s="25"/>
       <c r="C22" s="1" t="s">
         <v>47</v>
       </c>
@@ -6647,12 +7851,49 @@
       <c r="Q22" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A23" s="19" t="s">
+      <c r="R22" s="15"/>
+      <c r="S22" s="15"/>
+      <c r="T22" s="15"/>
+      <c r="U22" s="15"/>
+      <c r="V22" s="15"/>
+      <c r="W22" s="15"/>
+      <c r="X22" s="15"/>
+      <c r="Y22" s="15"/>
+      <c r="Z22" s="15"/>
+      <c r="AA22" s="15"/>
+      <c r="AB22" s="15"/>
+      <c r="AC22" s="15"/>
+      <c r="AD22" s="15"/>
+      <c r="AE22" s="15"/>
+      <c r="AF22" s="15"/>
+      <c r="AG22" s="15"/>
+      <c r="AH22" s="15"/>
+      <c r="AI22" s="15"/>
+      <c r="AJ22" s="15"/>
+      <c r="AK22" s="15"/>
+      <c r="AL22" s="15"/>
+      <c r="AM22" s="15"/>
+      <c r="AN22" s="15"/>
+      <c r="AO22" s="15"/>
+      <c r="AP22" s="15"/>
+      <c r="AQ22" s="15"/>
+      <c r="AR22" s="15"/>
+      <c r="AS22" s="15"/>
+      <c r="AT22" s="15"/>
+      <c r="AU22" s="15"/>
+      <c r="AV22" s="15"/>
+      <c r="AW22" s="15"/>
+      <c r="AX22" s="15"/>
+      <c r="AY22" s="15"/>
+      <c r="AZ22" s="15"/>
+      <c r="BA22" s="15"/>
+      <c r="BB22" s="15"/>
+    </row>
+    <row r="23" spans="1:54" ht="16.5" customHeight="1">
+      <c r="A23" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="B23" s="6"/>
+      <c r="B23" s="25"/>
       <c r="C23" s="1" t="s">
         <v>47</v>
       </c>
@@ -6698,12 +7939,49 @@
       <c r="Q23" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A24" s="19" t="s">
+      <c r="R23" s="15"/>
+      <c r="S23" s="15"/>
+      <c r="T23" s="15"/>
+      <c r="U23" s="15"/>
+      <c r="V23" s="15"/>
+      <c r="W23" s="15"/>
+      <c r="X23" s="15"/>
+      <c r="Y23" s="15"/>
+      <c r="Z23" s="15"/>
+      <c r="AA23" s="15"/>
+      <c r="AB23" s="15"/>
+      <c r="AC23" s="15"/>
+      <c r="AD23" s="15"/>
+      <c r="AE23" s="15"/>
+      <c r="AF23" s="15"/>
+      <c r="AG23" s="15"/>
+      <c r="AH23" s="15"/>
+      <c r="AI23" s="15"/>
+      <c r="AJ23" s="15"/>
+      <c r="AK23" s="15"/>
+      <c r="AL23" s="15"/>
+      <c r="AM23" s="15"/>
+      <c r="AN23" s="15"/>
+      <c r="AO23" s="15"/>
+      <c r="AP23" s="15"/>
+      <c r="AQ23" s="15"/>
+      <c r="AR23" s="15"/>
+      <c r="AS23" s="15"/>
+      <c r="AT23" s="15"/>
+      <c r="AU23" s="15"/>
+      <c r="AV23" s="15"/>
+      <c r="AW23" s="15"/>
+      <c r="AX23" s="15"/>
+      <c r="AY23" s="15"/>
+      <c r="AZ23" s="15"/>
+      <c r="BA23" s="15"/>
+      <c r="BB23" s="15"/>
+    </row>
+    <row r="24" spans="1:54" ht="16.5" customHeight="1">
+      <c r="A24" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="B24" s="6"/>
+      <c r="B24" s="25"/>
       <c r="C24" s="1" t="s">
         <v>47</v>
       </c>
@@ -6749,12 +8027,49 @@
       <c r="Q24" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A25" s="19" t="s">
+      <c r="R24" s="15"/>
+      <c r="S24" s="15"/>
+      <c r="T24" s="15"/>
+      <c r="U24" s="15"/>
+      <c r="V24" s="15"/>
+      <c r="W24" s="15"/>
+      <c r="X24" s="15"/>
+      <c r="Y24" s="15"/>
+      <c r="Z24" s="15"/>
+      <c r="AA24" s="15"/>
+      <c r="AB24" s="15"/>
+      <c r="AC24" s="15"/>
+      <c r="AD24" s="15"/>
+      <c r="AE24" s="15"/>
+      <c r="AF24" s="15"/>
+      <c r="AG24" s="15"/>
+      <c r="AH24" s="15"/>
+      <c r="AI24" s="15"/>
+      <c r="AJ24" s="15"/>
+      <c r="AK24" s="15"/>
+      <c r="AL24" s="15"/>
+      <c r="AM24" s="15"/>
+      <c r="AN24" s="15"/>
+      <c r="AO24" s="15"/>
+      <c r="AP24" s="15"/>
+      <c r="AQ24" s="15"/>
+      <c r="AR24" s="15"/>
+      <c r="AS24" s="15"/>
+      <c r="AT24" s="15"/>
+      <c r="AU24" s="15"/>
+      <c r="AV24" s="15"/>
+      <c r="AW24" s="15"/>
+      <c r="AX24" s="15"/>
+      <c r="AY24" s="15"/>
+      <c r="AZ24" s="15"/>
+      <c r="BA24" s="15"/>
+      <c r="BB24" s="15"/>
+    </row>
+    <row r="25" spans="1:54" ht="16.5" customHeight="1">
+      <c r="A25" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="B25" s="6"/>
+      <c r="B25" s="25"/>
       <c r="C25" s="1" t="s">
         <v>47</v>
       </c>
@@ -6800,12 +8115,49 @@
       <c r="Q25" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A26" s="19" t="s">
+      <c r="R25" s="15"/>
+      <c r="S25" s="15"/>
+      <c r="T25" s="15"/>
+      <c r="U25" s="15"/>
+      <c r="V25" s="15"/>
+      <c r="W25" s="15"/>
+      <c r="X25" s="15"/>
+      <c r="Y25" s="15"/>
+      <c r="Z25" s="15"/>
+      <c r="AA25" s="15"/>
+      <c r="AB25" s="15"/>
+      <c r="AC25" s="15"/>
+      <c r="AD25" s="15"/>
+      <c r="AE25" s="15"/>
+      <c r="AF25" s="15"/>
+      <c r="AG25" s="15"/>
+      <c r="AH25" s="15"/>
+      <c r="AI25" s="15"/>
+      <c r="AJ25" s="15"/>
+      <c r="AK25" s="15"/>
+      <c r="AL25" s="15"/>
+      <c r="AM25" s="15"/>
+      <c r="AN25" s="15"/>
+      <c r="AO25" s="15"/>
+      <c r="AP25" s="15"/>
+      <c r="AQ25" s="15"/>
+      <c r="AR25" s="15"/>
+      <c r="AS25" s="15"/>
+      <c r="AT25" s="15"/>
+      <c r="AU25" s="15"/>
+      <c r="AV25" s="15"/>
+      <c r="AW25" s="15"/>
+      <c r="AX25" s="15"/>
+      <c r="AY25" s="15"/>
+      <c r="AZ25" s="15"/>
+      <c r="BA25" s="15"/>
+      <c r="BB25" s="15"/>
+    </row>
+    <row r="26" spans="1:54" ht="16.5" customHeight="1">
+      <c r="A26" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="6"/>
+      <c r="B26" s="25"/>
       <c r="C26" s="1" t="s">
         <v>47</v>
       </c>
@@ -6851,12 +8203,49 @@
       <c r="Q26" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A27" s="19" t="s">
+      <c r="R26" s="15"/>
+      <c r="S26" s="15"/>
+      <c r="T26" s="15"/>
+      <c r="U26" s="15"/>
+      <c r="V26" s="15"/>
+      <c r="W26" s="15"/>
+      <c r="X26" s="15"/>
+      <c r="Y26" s="15"/>
+      <c r="Z26" s="15"/>
+      <c r="AA26" s="15"/>
+      <c r="AB26" s="15"/>
+      <c r="AC26" s="15"/>
+      <c r="AD26" s="15"/>
+      <c r="AE26" s="15"/>
+      <c r="AF26" s="15"/>
+      <c r="AG26" s="15"/>
+      <c r="AH26" s="15"/>
+      <c r="AI26" s="15"/>
+      <c r="AJ26" s="15"/>
+      <c r="AK26" s="15"/>
+      <c r="AL26" s="15"/>
+      <c r="AM26" s="15"/>
+      <c r="AN26" s="15"/>
+      <c r="AO26" s="15"/>
+      <c r="AP26" s="15"/>
+      <c r="AQ26" s="15"/>
+      <c r="AR26" s="15"/>
+      <c r="AS26" s="15"/>
+      <c r="AT26" s="15"/>
+      <c r="AU26" s="15"/>
+      <c r="AV26" s="15"/>
+      <c r="AW26" s="15"/>
+      <c r="AX26" s="15"/>
+      <c r="AY26" s="15"/>
+      <c r="AZ26" s="15"/>
+      <c r="BA26" s="15"/>
+      <c r="BB26" s="15"/>
+    </row>
+    <row r="27" spans="1:54" ht="16.5" customHeight="1">
+      <c r="A27" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="6"/>
+      <c r="B27" s="25"/>
       <c r="C27" s="1" t="s">
         <v>47</v>
       </c>
@@ -6902,12 +8291,49 @@
       <c r="Q27" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A28" s="19" t="s">
+      <c r="R27" s="15"/>
+      <c r="S27" s="15"/>
+      <c r="T27" s="15"/>
+      <c r="U27" s="15"/>
+      <c r="V27" s="15"/>
+      <c r="W27" s="15"/>
+      <c r="X27" s="15"/>
+      <c r="Y27" s="15"/>
+      <c r="Z27" s="15"/>
+      <c r="AA27" s="15"/>
+      <c r="AB27" s="15"/>
+      <c r="AC27" s="15"/>
+      <c r="AD27" s="15"/>
+      <c r="AE27" s="15"/>
+      <c r="AF27" s="15"/>
+      <c r="AG27" s="15"/>
+      <c r="AH27" s="15"/>
+      <c r="AI27" s="15"/>
+      <c r="AJ27" s="15"/>
+      <c r="AK27" s="15"/>
+      <c r="AL27" s="15"/>
+      <c r="AM27" s="15"/>
+      <c r="AN27" s="15"/>
+      <c r="AO27" s="15"/>
+      <c r="AP27" s="15"/>
+      <c r="AQ27" s="15"/>
+      <c r="AR27" s="15"/>
+      <c r="AS27" s="15"/>
+      <c r="AT27" s="15"/>
+      <c r="AU27" s="15"/>
+      <c r="AV27" s="15"/>
+      <c r="AW27" s="15"/>
+      <c r="AX27" s="15"/>
+      <c r="AY27" s="15"/>
+      <c r="AZ27" s="15"/>
+      <c r="BA27" s="15"/>
+      <c r="BB27" s="15"/>
+    </row>
+    <row r="28" spans="1:54" ht="16.5" customHeight="1">
+      <c r="A28" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="B28" s="6"/>
+      <c r="B28" s="25"/>
       <c r="C28" s="1" t="s">
         <v>47</v>
       </c>
@@ -6953,12 +8379,49 @@
       <c r="Q28" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A29" s="14" t="s">
+      <c r="R28" s="15"/>
+      <c r="S28" s="15"/>
+      <c r="T28" s="15"/>
+      <c r="U28" s="15"/>
+      <c r="V28" s="15"/>
+      <c r="W28" s="15"/>
+      <c r="X28" s="15"/>
+      <c r="Y28" s="15"/>
+      <c r="Z28" s="15"/>
+      <c r="AA28" s="15"/>
+      <c r="AB28" s="15"/>
+      <c r="AC28" s="15"/>
+      <c r="AD28" s="15"/>
+      <c r="AE28" s="15"/>
+      <c r="AF28" s="15"/>
+      <c r="AG28" s="15"/>
+      <c r="AH28" s="15"/>
+      <c r="AI28" s="15"/>
+      <c r="AJ28" s="15"/>
+      <c r="AK28" s="15"/>
+      <c r="AL28" s="15"/>
+      <c r="AM28" s="15"/>
+      <c r="AN28" s="15"/>
+      <c r="AO28" s="15"/>
+      <c r="AP28" s="15"/>
+      <c r="AQ28" s="15"/>
+      <c r="AR28" s="15"/>
+      <c r="AS28" s="15"/>
+      <c r="AT28" s="15"/>
+      <c r="AU28" s="15"/>
+      <c r="AV28" s="15"/>
+      <c r="AW28" s="15"/>
+      <c r="AX28" s="15"/>
+      <c r="AY28" s="15"/>
+      <c r="AZ28" s="15"/>
+      <c r="BA28" s="15"/>
+      <c r="BB28" s="15"/>
+    </row>
+    <row r="29" spans="1:54" ht="16.5" customHeight="1">
+      <c r="A29" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="B29" s="15"/>
+      <c r="B29" s="27"/>
       <c r="C29" s="1" t="s">
         <v>47</v>
       </c>
@@ -7004,12 +8467,49 @@
       <c r="Q29" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A30" s="19" t="s">
+      <c r="R29" s="15"/>
+      <c r="S29" s="15"/>
+      <c r="T29" s="15"/>
+      <c r="U29" s="15"/>
+      <c r="V29" s="15"/>
+      <c r="W29" s="15"/>
+      <c r="X29" s="15"/>
+      <c r="Y29" s="15"/>
+      <c r="Z29" s="15"/>
+      <c r="AA29" s="15"/>
+      <c r="AB29" s="15"/>
+      <c r="AC29" s="15"/>
+      <c r="AD29" s="15"/>
+      <c r="AE29" s="15"/>
+      <c r="AF29" s="15"/>
+      <c r="AG29" s="15"/>
+      <c r="AH29" s="15"/>
+      <c r="AI29" s="15"/>
+      <c r="AJ29" s="15"/>
+      <c r="AK29" s="15"/>
+      <c r="AL29" s="15"/>
+      <c r="AM29" s="15"/>
+      <c r="AN29" s="15"/>
+      <c r="AO29" s="15"/>
+      <c r="AP29" s="15"/>
+      <c r="AQ29" s="15"/>
+      <c r="AR29" s="15"/>
+      <c r="AS29" s="15"/>
+      <c r="AT29" s="15"/>
+      <c r="AU29" s="15"/>
+      <c r="AV29" s="15"/>
+      <c r="AW29" s="15"/>
+      <c r="AX29" s="15"/>
+      <c r="AY29" s="15"/>
+      <c r="AZ29" s="15"/>
+      <c r="BA29" s="15"/>
+      <c r="BB29" s="15"/>
+    </row>
+    <row r="30" spans="1:54" ht="16.5" customHeight="1">
+      <c r="A30" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="B30" s="6"/>
+      <c r="B30" s="25"/>
       <c r="C30" s="1" t="s">
         <v>47</v>
       </c>
@@ -7055,12 +8555,49 @@
       <c r="Q30" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A31" s="19" t="s">
+      <c r="R30" s="15"/>
+      <c r="S30" s="15"/>
+      <c r="T30" s="15"/>
+      <c r="U30" s="15"/>
+      <c r="V30" s="15"/>
+      <c r="W30" s="15"/>
+      <c r="X30" s="15"/>
+      <c r="Y30" s="15"/>
+      <c r="Z30" s="15"/>
+      <c r="AA30" s="15"/>
+      <c r="AB30" s="15"/>
+      <c r="AC30" s="15"/>
+      <c r="AD30" s="15"/>
+      <c r="AE30" s="15"/>
+      <c r="AF30" s="15"/>
+      <c r="AG30" s="15"/>
+      <c r="AH30" s="15"/>
+      <c r="AI30" s="15"/>
+      <c r="AJ30" s="15"/>
+      <c r="AK30" s="15"/>
+      <c r="AL30" s="15"/>
+      <c r="AM30" s="15"/>
+      <c r="AN30" s="15"/>
+      <c r="AO30" s="15"/>
+      <c r="AP30" s="15"/>
+      <c r="AQ30" s="15"/>
+      <c r="AR30" s="15"/>
+      <c r="AS30" s="15"/>
+      <c r="AT30" s="15"/>
+      <c r="AU30" s="15"/>
+      <c r="AV30" s="15"/>
+      <c r="AW30" s="15"/>
+      <c r="AX30" s="15"/>
+      <c r="AY30" s="15"/>
+      <c r="AZ30" s="15"/>
+      <c r="BA30" s="15"/>
+      <c r="BB30" s="15"/>
+    </row>
+    <row r="31" spans="1:54" ht="16.5" customHeight="1">
+      <c r="A31" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="B31" s="6"/>
+      <c r="B31" s="25"/>
       <c r="C31" s="1" t="s">
         <v>47</v>
       </c>
@@ -7106,12 +8643,49 @@
       <c r="Q31" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A32" s="19" t="s">
+      <c r="R31" s="15"/>
+      <c r="S31" s="15"/>
+      <c r="T31" s="15"/>
+      <c r="U31" s="15"/>
+      <c r="V31" s="15"/>
+      <c r="W31" s="15"/>
+      <c r="X31" s="15"/>
+      <c r="Y31" s="15"/>
+      <c r="Z31" s="15"/>
+      <c r="AA31" s="15"/>
+      <c r="AB31" s="15"/>
+      <c r="AC31" s="15"/>
+      <c r="AD31" s="15"/>
+      <c r="AE31" s="15"/>
+      <c r="AF31" s="15"/>
+      <c r="AG31" s="15"/>
+      <c r="AH31" s="15"/>
+      <c r="AI31" s="15"/>
+      <c r="AJ31" s="15"/>
+      <c r="AK31" s="15"/>
+      <c r="AL31" s="15"/>
+      <c r="AM31" s="15"/>
+      <c r="AN31" s="15"/>
+      <c r="AO31" s="15"/>
+      <c r="AP31" s="15"/>
+      <c r="AQ31" s="15"/>
+      <c r="AR31" s="15"/>
+      <c r="AS31" s="15"/>
+      <c r="AT31" s="15"/>
+      <c r="AU31" s="15"/>
+      <c r="AV31" s="15"/>
+      <c r="AW31" s="15"/>
+      <c r="AX31" s="15"/>
+      <c r="AY31" s="15"/>
+      <c r="AZ31" s="15"/>
+      <c r="BA31" s="15"/>
+      <c r="BB31" s="15"/>
+    </row>
+    <row r="32" spans="1:54" ht="16.5" customHeight="1">
+      <c r="A32" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="6"/>
+      <c r="B32" s="25"/>
       <c r="C32" s="1" t="s">
         <v>47</v>
       </c>
@@ -7157,12 +8731,49 @@
       <c r="Q32" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A33" s="19" t="s">
+      <c r="R32" s="15"/>
+      <c r="S32" s="15"/>
+      <c r="T32" s="15"/>
+      <c r="U32" s="15"/>
+      <c r="V32" s="15"/>
+      <c r="W32" s="15"/>
+      <c r="X32" s="15"/>
+      <c r="Y32" s="15"/>
+      <c r="Z32" s="15"/>
+      <c r="AA32" s="15"/>
+      <c r="AB32" s="15"/>
+      <c r="AC32" s="15"/>
+      <c r="AD32" s="15"/>
+      <c r="AE32" s="15"/>
+      <c r="AF32" s="15"/>
+      <c r="AG32" s="15"/>
+      <c r="AH32" s="15"/>
+      <c r="AI32" s="15"/>
+      <c r="AJ32" s="15"/>
+      <c r="AK32" s="15"/>
+      <c r="AL32" s="15"/>
+      <c r="AM32" s="15"/>
+      <c r="AN32" s="15"/>
+      <c r="AO32" s="15"/>
+      <c r="AP32" s="15"/>
+      <c r="AQ32" s="15"/>
+      <c r="AR32" s="15"/>
+      <c r="AS32" s="15"/>
+      <c r="AT32" s="15"/>
+      <c r="AU32" s="15"/>
+      <c r="AV32" s="15"/>
+      <c r="AW32" s="15"/>
+      <c r="AX32" s="15"/>
+      <c r="AY32" s="15"/>
+      <c r="AZ32" s="15"/>
+      <c r="BA32" s="15"/>
+      <c r="BB32" s="15"/>
+    </row>
+    <row r="33" spans="1:54" ht="16.5" customHeight="1">
+      <c r="A33" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="B33" s="6"/>
+      <c r="B33" s="25"/>
       <c r="C33" s="1" t="s">
         <v>47</v>
       </c>
@@ -7208,14 +8819,51 @@
       <c r="Q33" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A34" s="14" t="s">
+      <c r="R33" s="15"/>
+      <c r="S33" s="15"/>
+      <c r="T33" s="15"/>
+      <c r="U33" s="15"/>
+      <c r="V33" s="15"/>
+      <c r="W33" s="15"/>
+      <c r="X33" s="15"/>
+      <c r="Y33" s="15"/>
+      <c r="Z33" s="15"/>
+      <c r="AA33" s="15"/>
+      <c r="AB33" s="15"/>
+      <c r="AC33" s="15"/>
+      <c r="AD33" s="15"/>
+      <c r="AE33" s="15"/>
+      <c r="AF33" s="15"/>
+      <c r="AG33" s="15"/>
+      <c r="AH33" s="15"/>
+      <c r="AI33" s="15"/>
+      <c r="AJ33" s="15"/>
+      <c r="AK33" s="15"/>
+      <c r="AL33" s="15"/>
+      <c r="AM33" s="15"/>
+      <c r="AN33" s="15"/>
+      <c r="AO33" s="15"/>
+      <c r="AP33" s="15"/>
+      <c r="AQ33" s="15"/>
+      <c r="AR33" s="15"/>
+      <c r="AS33" s="15"/>
+      <c r="AT33" s="15"/>
+      <c r="AU33" s="15"/>
+      <c r="AV33" s="15"/>
+      <c r="AW33" s="15"/>
+      <c r="AX33" s="15"/>
+      <c r="AY33" s="15"/>
+      <c r="AZ33" s="15"/>
+      <c r="BA33" s="15"/>
+      <c r="BB33" s="15"/>
+    </row>
+    <row r="34" spans="1:54" ht="16.5" customHeight="1">
+      <c r="A34" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="B34" s="15"/>
+      <c r="B34" s="27"/>
       <c r="C34" s="1" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>70</v>
@@ -7259,266 +8907,377 @@
       <c r="Q34" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" s="3" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A35" s="16" t="s">
+      <c r="R34" s="15"/>
+      <c r="S34" s="15"/>
+      <c r="T34" s="15"/>
+      <c r="U34" s="15"/>
+      <c r="V34" s="15"/>
+      <c r="W34" s="15"/>
+      <c r="X34" s="15"/>
+      <c r="Y34" s="15"/>
+      <c r="Z34" s="15"/>
+      <c r="AA34" s="15"/>
+      <c r="AB34" s="15"/>
+      <c r="AC34" s="15"/>
+      <c r="AD34" s="15"/>
+      <c r="AE34" s="15"/>
+      <c r="AF34" s="15"/>
+      <c r="AG34" s="15"/>
+      <c r="AH34" s="15"/>
+      <c r="AI34" s="15"/>
+      <c r="AJ34" s="15"/>
+      <c r="AK34" s="15"/>
+      <c r="AL34" s="15"/>
+      <c r="AM34" s="15"/>
+      <c r="AN34" s="15"/>
+      <c r="AO34" s="15"/>
+      <c r="AP34" s="15"/>
+      <c r="AQ34" s="15"/>
+      <c r="AR34" s="15"/>
+      <c r="AS34" s="15"/>
+      <c r="AT34" s="15"/>
+      <c r="AU34" s="15"/>
+      <c r="AV34" s="15"/>
+      <c r="AW34" s="15"/>
+      <c r="AX34" s="15"/>
+      <c r="AY34" s="15"/>
+      <c r="AZ34" s="15"/>
+      <c r="BA34" s="15"/>
+      <c r="BB34" s="15"/>
+    </row>
+    <row r="35" spans="1:54" s="3" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A35" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="B35" s="16"/>
-      <c r="C35" s="13" t="s">
+      <c r="B35" s="28"/>
+      <c r="C35" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D35" s="13" t="s">
+      <c r="D35" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E35" s="13" t="s">
+      <c r="E35" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F35" s="13" t="s">
+      <c r="F35" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G35" s="13" t="s">
+      <c r="G35" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H35" s="13" t="s">
+      <c r="H35" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="I35" s="13" t="s">
+      <c r="I35" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="J35" s="13" t="s">
+      <c r="J35" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="K35" s="13" t="s">
+      <c r="K35" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="L35" s="13" t="s">
+      <c r="L35" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="M35" s="13" t="s">
+      <c r="M35" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="N35" s="13" t="s">
+      <c r="N35" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="O35" s="13" t="s">
+      <c r="O35" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="P35" s="13" t="s">
+      <c r="P35" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="Q35" s="13" t="s">
+      <c r="Q35" s="5" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" s="3" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A36" s="16" t="s">
+      <c r="R35" s="15"/>
+      <c r="S35" s="15"/>
+      <c r="T35" s="15"/>
+      <c r="U35" s="15"/>
+      <c r="V35" s="15"/>
+      <c r="W35" s="15"/>
+      <c r="X35" s="15"/>
+      <c r="Y35" s="15"/>
+      <c r="Z35" s="15"/>
+      <c r="AA35" s="15"/>
+      <c r="AB35" s="15"/>
+      <c r="AC35" s="15"/>
+      <c r="AD35" s="15"/>
+      <c r="AE35" s="15"/>
+      <c r="AF35" s="15"/>
+      <c r="AG35" s="15"/>
+      <c r="AH35" s="15"/>
+      <c r="AI35" s="15"/>
+      <c r="AJ35" s="15"/>
+      <c r="AK35" s="15"/>
+      <c r="AL35" s="15"/>
+      <c r="AM35" s="15"/>
+      <c r="AN35" s="15"/>
+      <c r="AO35" s="15"/>
+      <c r="AP35" s="15"/>
+      <c r="AQ35" s="15"/>
+      <c r="AR35" s="15"/>
+      <c r="AS35" s="15"/>
+      <c r="AT35" s="15"/>
+      <c r="AU35" s="15"/>
+      <c r="AV35" s="15"/>
+      <c r="AW35" s="15"/>
+      <c r="AX35" s="15"/>
+      <c r="AY35" s="15"/>
+      <c r="AZ35" s="15"/>
+      <c r="BA35" s="15"/>
+      <c r="BB35" s="15"/>
+    </row>
+    <row r="36" spans="1:54" s="3" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A36" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="B36" s="16"/>
-      <c r="C36" s="13" t="s">
+      <c r="B36" s="28"/>
+      <c r="C36" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D36" s="13" t="s">
+      <c r="D36" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E36" s="13" t="s">
+      <c r="E36" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F36" s="13" t="s">
+      <c r="F36" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G36" s="13" t="s">
+      <c r="G36" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H36" s="13" t="s">
+      <c r="H36" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="I36" s="13" t="s">
+      <c r="I36" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="J36" s="13" t="s">
+      <c r="J36" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="K36" s="13" t="s">
+      <c r="K36" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="L36" s="13" t="s">
+      <c r="L36" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="M36" s="13" t="s">
+      <c r="M36" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="N36" s="13" t="s">
+      <c r="N36" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="O36" s="13" t="s">
+      <c r="O36" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="P36" s="13" t="s">
+      <c r="P36" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="Q36" s="13" t="s">
+      <c r="Q36" s="5" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" ht="21.75" customHeight="1">
-      <c r="A39" s="20" t="s">
+      <c r="R36" s="15"/>
+      <c r="S36" s="15"/>
+      <c r="T36" s="15"/>
+      <c r="U36" s="15"/>
+      <c r="V36" s="15"/>
+      <c r="W36" s="15"/>
+      <c r="X36" s="15"/>
+      <c r="Y36" s="15"/>
+      <c r="Z36" s="15"/>
+      <c r="AA36" s="15"/>
+      <c r="AB36" s="15"/>
+      <c r="AC36" s="15"/>
+      <c r="AD36" s="15"/>
+      <c r="AE36" s="15"/>
+      <c r="AF36" s="15"/>
+      <c r="AG36" s="15"/>
+      <c r="AH36" s="15"/>
+      <c r="AI36" s="15"/>
+      <c r="AJ36" s="15"/>
+      <c r="AK36" s="15"/>
+      <c r="AL36" s="15"/>
+      <c r="AM36" s="15"/>
+      <c r="AN36" s="15"/>
+      <c r="AO36" s="15"/>
+      <c r="AP36" s="15"/>
+      <c r="AQ36" s="15"/>
+      <c r="AR36" s="15"/>
+      <c r="AS36" s="15"/>
+      <c r="AT36" s="15"/>
+      <c r="AU36" s="15"/>
+      <c r="AV36" s="15"/>
+      <c r="AW36" s="15"/>
+      <c r="AX36" s="15"/>
+      <c r="AY36" s="15"/>
+      <c r="AZ36" s="15"/>
+      <c r="BA36" s="15"/>
+      <c r="BB36" s="15"/>
+    </row>
+    <row r="39" spans="1:54" ht="21.75" customHeight="1">
+      <c r="A39" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B39" s="20"/>
-      <c r="C39" s="20" t="s">
+      <c r="B39" s="23"/>
+      <c r="C39" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="20"/>
-    </row>
-    <row r="40" spans="1:17" ht="21.75" customHeight="1">
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="23"/>
+    </row>
+    <row r="40" spans="1:54" ht="21.75" customHeight="1">
       <c r="A40" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C40" s="22" t="s">
+      <c r="C40" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="22"/>
-    </row>
-    <row r="41" spans="1:17" ht="21.75" customHeight="1">
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+    </row>
+    <row r="41" spans="1:54" ht="21.75" customHeight="1">
       <c r="A41" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="23" t="s">
+      <c r="C41" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="D41" s="23"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="23"/>
-    </row>
-    <row r="42" spans="1:17" ht="21.75" customHeight="1">
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22"/>
+    </row>
+    <row r="42" spans="1:54" ht="21.75" customHeight="1">
       <c r="A42" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C42" s="22" t="s">
+      <c r="C42" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="22"/>
-    </row>
-    <row r="43" spans="1:17" ht="21.75" customHeight="1">
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="21"/>
+    </row>
+    <row r="43" spans="1:54" ht="21.75" customHeight="1">
       <c r="A43" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C43" s="22" t="s">
+      <c r="C43" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="22"/>
-    </row>
-    <row r="44" spans="1:17" ht="21.75" customHeight="1">
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
+    </row>
+    <row r="44" spans="1:54" ht="21.75" customHeight="1">
       <c r="A44" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C44" s="22" t="s">
+      <c r="C44" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="22"/>
-    </row>
-    <row r="45" spans="1:17" ht="21.75" customHeight="1">
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="21"/>
+    </row>
+    <row r="45" spans="1:54" ht="21.75" customHeight="1">
       <c r="A45" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C45" s="22" t="s">
+      <c r="C45" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="D45" s="22"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="22"/>
-      <c r="G45" s="22"/>
-      <c r="H45" s="22"/>
-    </row>
-    <row r="46" spans="1:17" ht="21.75" customHeight="1">
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="21"/>
+    </row>
+    <row r="46" spans="1:54" ht="21.75" customHeight="1">
       <c r="A46" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C46" s="22" t="s">
+      <c r="C46" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="D46" s="22"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="22"/>
-      <c r="G46" s="22"/>
-      <c r="H46" s="22"/>
-    </row>
-    <row r="47" spans="1:17" ht="21.75" customHeight="1">
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="21"/>
+      <c r="H46" s="21"/>
+    </row>
+    <row r="47" spans="1:54" ht="21.75" customHeight="1">
       <c r="A47" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C47" s="23" t="s">
-        <v>339</v>
-      </c>
-      <c r="D47" s="23"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="23"/>
-      <c r="H47" s="23"/>
-    </row>
-    <row r="48" spans="1:17" ht="21.75" customHeight="1">
+      <c r="C47" s="22" t="s">
+        <v>336</v>
+      </c>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
+    </row>
+    <row r="48" spans="1:54" ht="21.75" customHeight="1">
       <c r="A48" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C48" s="22" t="s">
+      <c r="C48" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="D48" s="22"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="22"/>
-      <c r="H48" s="22"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="21"/>
     </row>
     <row r="49" spans="1:8" ht="21.75" customHeight="1">
       <c r="A49" s="2" t="s">
@@ -7527,14 +9286,14 @@
       <c r="B49" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C49" s="22">
+      <c r="C49" s="21">
         <v>1112222</v>
       </c>
-      <c r="D49" s="22"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="22"/>
-      <c r="G49" s="22"/>
-      <c r="H49" s="22"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="21"/>
     </row>
     <row r="50" spans="1:8" ht="21.75" customHeight="1">
       <c r="A50" s="2" t="s">
@@ -7543,14 +9302,14 @@
       <c r="B50" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C50" s="22">
+      <c r="C50" s="21">
         <v>11122223333</v>
       </c>
-      <c r="D50" s="22"/>
-      <c r="E50" s="22"/>
-      <c r="F50" s="22"/>
-      <c r="G50" s="22"/>
-      <c r="H50" s="22"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="21"/>
+      <c r="H50" s="21"/>
     </row>
     <row r="51" spans="1:8" ht="21.75" customHeight="1">
       <c r="A51" s="2" t="s">
@@ -7559,14 +9318,14 @@
       <c r="B51" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C51" s="22" t="s">
+      <c r="C51" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="D51" s="22"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="22"/>
-      <c r="G51" s="22"/>
-      <c r="H51" s="22"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="21"/>
     </row>
     <row r="52" spans="1:8" ht="21.75" customHeight="1">
       <c r="A52" s="2" t="s">
@@ -7575,14 +9334,14 @@
       <c r="B52" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C52" s="22" t="s">
+      <c r="C52" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="D52" s="22"/>
-      <c r="E52" s="22"/>
-      <c r="F52" s="22"/>
-      <c r="G52" s="22"/>
-      <c r="H52" s="22"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="21"/>
+      <c r="H52" s="21"/>
     </row>
     <row r="53" spans="1:8" ht="21.75" customHeight="1">
       <c r="A53" s="2" t="s">
@@ -7591,17 +9350,43 @@
       <c r="B53" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C53" s="22">
+      <c r="C53" s="21">
         <v>1234567</v>
       </c>
-      <c r="D53" s="22"/>
-      <c r="E53" s="22"/>
-      <c r="F53" s="22"/>
-      <c r="G53" s="22"/>
-      <c r="H53" s="22"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="21"/>
+      <c r="H53" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:Q2"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:H39"/>
+    <mergeCell ref="C40:H40"/>
+    <mergeCell ref="C42:H42"/>
+    <mergeCell ref="C43:H43"/>
     <mergeCell ref="C50:H50"/>
     <mergeCell ref="C51:H51"/>
     <mergeCell ref="C52:H52"/>
@@ -7613,32 +9398,6 @@
     <mergeCell ref="C47:H47"/>
     <mergeCell ref="C48:H48"/>
     <mergeCell ref="C49:H49"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:H39"/>
-    <mergeCell ref="C40:H40"/>
-    <mergeCell ref="C42:H42"/>
-    <mergeCell ref="C43:H43"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:Q2"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A33:B33"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7646,11 +9405,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AD32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21:H21"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27" customHeight="1"/>
@@ -7662,31 +9421,31 @@
   <sheetData>
     <row r="1" spans="1:30" ht="27" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:30" ht="27" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A2" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
+      <c r="A2" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="B2" s="34"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
     </row>
     <row r="3" spans="1:30" ht="16.5" customHeight="1" thickTop="1">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="8"/>
+      <c r="B3" s="32"/>
       <c r="C3" s="2" t="s">
         <v>20</v>
       </c>
@@ -7727,7 +9486,7 @@
     </row>
     <row r="6" spans="1:30" ht="16.5" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>39</v>
@@ -7744,10 +9503,10 @@
     </row>
     <row r="7" spans="1:30" ht="16.5" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>72</v>
@@ -7764,7 +9523,7 @@
         <v>37</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>72</v>
@@ -7777,76 +9536,76 @@
       </c>
     </row>
     <row r="9" spans="1:30" s="3" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A9" s="17"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="38"/>
-      <c r="N9" s="38"/>
-      <c r="O9" s="38"/>
-      <c r="P9" s="38"/>
-      <c r="Q9" s="38"/>
-      <c r="R9" s="38"/>
-      <c r="S9" s="38"/>
-      <c r="T9" s="38"/>
-      <c r="U9" s="38"/>
-      <c r="V9" s="38"/>
-      <c r="W9" s="38"/>
-      <c r="X9" s="38"/>
-      <c r="Y9" s="38"/>
-      <c r="Z9" s="38"/>
-      <c r="AA9" s="38"/>
-      <c r="AB9" s="38"/>
-      <c r="AC9" s="38"/>
-      <c r="AD9" s="38"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="15"/>
+      <c r="W9" s="15"/>
+      <c r="X9" s="15"/>
+      <c r="Y9" s="15"/>
+      <c r="Z9" s="15"/>
+      <c r="AA9" s="15"/>
+      <c r="AB9" s="15"/>
+      <c r="AC9" s="15"/>
+      <c r="AD9" s="15"/>
     </row>
     <row r="10" spans="1:30" ht="16.5" customHeight="1">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="12"/>
+      <c r="B10" s="37"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="38"/>
-      <c r="N10" s="38"/>
-      <c r="O10" s="38"/>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="38"/>
-      <c r="R10" s="38"/>
-      <c r="S10" s="38"/>
-      <c r="T10" s="38"/>
-      <c r="U10" s="38"/>
-      <c r="V10" s="38"/>
-      <c r="W10" s="38"/>
-      <c r="X10" s="38"/>
-      <c r="Y10" s="38"/>
-      <c r="Z10" s="38"/>
-      <c r="AA10" s="38"/>
-      <c r="AB10" s="38"/>
-      <c r="AC10" s="38"/>
-      <c r="AD10" s="38"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="15"/>
+      <c r="W10" s="15"/>
+      <c r="X10" s="15"/>
+      <c r="Y10" s="15"/>
+      <c r="Z10" s="15"/>
+      <c r="AA10" s="15"/>
+      <c r="AB10" s="15"/>
+      <c r="AC10" s="15"/>
+      <c r="AD10" s="15"/>
     </row>
     <row r="11" spans="1:30" ht="16.5" customHeight="1">
-      <c r="A11" s="19" t="s">
-        <v>246</v>
-      </c>
-      <c r="B11" s="6"/>
+      <c r="A11" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="B11" s="25"/>
       <c r="C11" s="1" t="s">
         <v>47</v>
       </c>
@@ -7856,205 +9615,205 @@
       <c r="E11" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="38"/>
-      <c r="N11" s="38"/>
-      <c r="O11" s="38"/>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="38"/>
-      <c r="R11" s="38"/>
-      <c r="S11" s="38"/>
-      <c r="T11" s="38"/>
-      <c r="U11" s="38"/>
-      <c r="V11" s="38"/>
-      <c r="W11" s="38"/>
-      <c r="X11" s="38"/>
-      <c r="Y11" s="38"/>
-      <c r="Z11" s="38"/>
-      <c r="AA11" s="38"/>
-      <c r="AB11" s="38"/>
-      <c r="AC11" s="38"/>
-      <c r="AD11" s="38"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="15"/>
+      <c r="W11" s="15"/>
+      <c r="X11" s="15"/>
+      <c r="Y11" s="15"/>
+      <c r="Z11" s="15"/>
+      <c r="AA11" s="15"/>
+      <c r="AB11" s="15"/>
+      <c r="AC11" s="15"/>
+      <c r="AD11" s="15"/>
     </row>
     <row r="12" spans="1:30" ht="16.5" customHeight="1">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="B12" s="25"/>
+      <c r="C12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="15"/>
+      <c r="W12" s="15"/>
+      <c r="X12" s="15"/>
+      <c r="Y12" s="15"/>
+      <c r="Z12" s="15"/>
+      <c r="AA12" s="15"/>
+      <c r="AB12" s="15"/>
+      <c r="AC12" s="15"/>
+      <c r="AD12" s="15"/>
+    </row>
+    <row r="13" spans="1:30" s="3" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A13" s="28" t="s">
         <v>247</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="B13" s="28"/>
+      <c r="C13" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="15"/>
+      <c r="V13" s="15"/>
+      <c r="W13" s="15"/>
+      <c r="X13" s="15"/>
+      <c r="Y13" s="15"/>
+      <c r="Z13" s="15"/>
+      <c r="AA13" s="15"/>
+      <c r="AB13" s="15"/>
+      <c r="AC13" s="15"/>
+      <c r="AD13" s="15"/>
+    </row>
+    <row r="14" spans="1:30" s="3" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A14" s="38" t="s">
+        <v>248</v>
+      </c>
+      <c r="B14" s="39"/>
+      <c r="C14" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E14" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="38"/>
-      <c r="N12" s="38"/>
-      <c r="O12" s="38"/>
-      <c r="P12" s="38"/>
-      <c r="Q12" s="38"/>
-      <c r="R12" s="38"/>
-      <c r="S12" s="38"/>
-      <c r="T12" s="38"/>
-      <c r="U12" s="38"/>
-      <c r="V12" s="38"/>
-      <c r="W12" s="38"/>
-      <c r="X12" s="38"/>
-      <c r="Y12" s="38"/>
-      <c r="Z12" s="38"/>
-      <c r="AA12" s="38"/>
-      <c r="AB12" s="38"/>
-      <c r="AC12" s="38"/>
-      <c r="AD12" s="38"/>
-    </row>
-    <row r="13" spans="1:30" s="3" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A13" s="16" t="s">
-        <v>248</v>
-      </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="38"/>
-      <c r="M13" s="38"/>
-      <c r="N13" s="38"/>
-      <c r="O13" s="38"/>
-      <c r="P13" s="38"/>
-      <c r="Q13" s="38"/>
-      <c r="R13" s="38"/>
-      <c r="S13" s="38"/>
-      <c r="T13" s="38"/>
-      <c r="U13" s="38"/>
-      <c r="V13" s="38"/>
-      <c r="W13" s="38"/>
-      <c r="X13" s="38"/>
-      <c r="Y13" s="38"/>
-      <c r="Z13" s="38"/>
-      <c r="AA13" s="38"/>
-      <c r="AB13" s="38"/>
-      <c r="AC13" s="38"/>
-      <c r="AD13" s="38"/>
-    </row>
-    <row r="14" spans="1:30" s="3" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A14" s="36" t="s">
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="15"/>
+      <c r="V14" s="15"/>
+      <c r="W14" s="15"/>
+      <c r="X14" s="15"/>
+      <c r="Y14" s="15"/>
+      <c r="Z14" s="15"/>
+      <c r="AA14" s="15"/>
+      <c r="AB14" s="15"/>
+      <c r="AC14" s="15"/>
+      <c r="AD14" s="15"/>
+    </row>
+    <row r="15" spans="1:30" s="3" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A15" s="28" t="s">
         <v>249</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>253</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>253</v>
-      </c>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="38"/>
-      <c r="N14" s="38"/>
-      <c r="O14" s="38"/>
-      <c r="P14" s="38"/>
-      <c r="Q14" s="38"/>
-      <c r="R14" s="38"/>
-      <c r="S14" s="38"/>
-      <c r="T14" s="38"/>
-      <c r="U14" s="38"/>
-      <c r="V14" s="38"/>
-      <c r="W14" s="38"/>
-      <c r="X14" s="38"/>
-      <c r="Y14" s="38"/>
-      <c r="Z14" s="38"/>
-      <c r="AA14" s="38"/>
-      <c r="AB14" s="38"/>
-      <c r="AC14" s="38"/>
-      <c r="AD14" s="38"/>
-    </row>
-    <row r="15" spans="1:30" s="3" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A15" s="16" t="s">
+      <c r="B15" s="28"/>
+      <c r="C15" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="38"/>
-      <c r="N15" s="38"/>
-      <c r="O15" s="38"/>
-      <c r="P15" s="38"/>
-      <c r="Q15" s="38"/>
-      <c r="R15" s="38"/>
-      <c r="S15" s="38"/>
-      <c r="T15" s="38"/>
-      <c r="U15" s="38"/>
-      <c r="V15" s="38"/>
-      <c r="W15" s="38"/>
-      <c r="X15" s="38"/>
-      <c r="Y15" s="38"/>
-      <c r="Z15" s="38"/>
-      <c r="AA15" s="38"/>
-      <c r="AB15" s="38"/>
-      <c r="AC15" s="38"/>
-      <c r="AD15" s="38"/>
+      <c r="D15" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="15"/>
+      <c r="U15" s="15"/>
+      <c r="V15" s="15"/>
+      <c r="W15" s="15"/>
+      <c r="X15" s="15"/>
+      <c r="Y15" s="15"/>
+      <c r="Z15" s="15"/>
+      <c r="AA15" s="15"/>
+      <c r="AB15" s="15"/>
+      <c r="AC15" s="15"/>
+      <c r="AD15" s="15"/>
     </row>
     <row r="18" spans="1:8" ht="21.75" customHeight="1">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20" t="s">
+      <c r="B18" s="23"/>
+      <c r="C18" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
     </row>
     <row r="19" spans="1:8" ht="21.75" customHeight="1">
       <c r="A19" s="2" t="s">
@@ -8063,62 +9822,62 @@
       <c r="B19" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="23" t="s">
-        <v>257</v>
-      </c>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
+      <c r="C19" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
     </row>
     <row r="20" spans="1:8" ht="21.75" customHeight="1">
       <c r="A20" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="22" t="s">
-        <v>258</v>
-      </c>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
+      <c r="C20" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
     </row>
     <row r="21" spans="1:8" ht="21.75" customHeight="1">
       <c r="A21" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C21" s="40" t="s">
-        <v>259</v>
-      </c>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
+        <v>258</v>
+      </c>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
     </row>
     <row r="22" spans="1:8" ht="21.75" customHeight="1">
       <c r="A22" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="C22" s="22">
+        <v>243</v>
+      </c>
+      <c r="C22" s="21">
         <v>12345678</v>
       </c>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
     </row>
     <row r="23" spans="1:8" ht="21.75" customHeight="1"/>
     <row r="24" spans="1:8" ht="21.75" customHeight="1"/>
@@ -8132,6 +9891,13 @@
     <row r="32" spans="1:8" ht="21.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:Q2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="C19:H19"/>
     <mergeCell ref="C21:H21"/>
@@ -8141,64 +9907,50 @@
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="C18:H18"/>
     <mergeCell ref="C20:H20"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:Q2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="C21" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:AH45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="17.625" customWidth="1"/>
     <col min="2" max="2" width="41.125" customWidth="1"/>
-    <col min="3" max="17" width="9.625" customWidth="1"/>
+    <col min="3" max="13" width="9.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="27" customHeight="1" thickBot="1"/>
-    <row r="2" spans="1:17" ht="27" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A2" s="9" t="s">
+    <row r="1" spans="1:34" ht="27" customHeight="1" thickBot="1"/>
+    <row r="2" spans="1:34" ht="27" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A2" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-    </row>
-    <row r="3" spans="1:17" ht="16.5" customHeight="1" thickTop="1">
-      <c r="A3" s="7" t="s">
+      <c r="B2" s="34"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+    </row>
+    <row r="3" spans="1:34" ht="16.5" customHeight="1" thickTop="1">
+      <c r="A3" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="8"/>
+      <c r="B3" s="32"/>
       <c r="C3" s="2" t="s">
         <v>20</v>
       </c>
@@ -8232,20 +9984,8 @@
       <c r="M3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="16.5" customHeight="1">
+    </row>
+    <row r="4" spans="1:34" ht="16.5" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>15</v>
       </c>
@@ -8263,12 +10003,8 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-    </row>
-    <row r="5" spans="1:17" ht="16.5" customHeight="1">
+    </row>
+    <row r="5" spans="1:34" ht="16.5" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>32</v>
       </c>
@@ -8308,20 +10044,8 @@
       <c r="M5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="N5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="16.5" customHeight="1">
+    </row>
+    <row r="6" spans="1:34" ht="16.5" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>33</v>
       </c>
@@ -8350,31 +10074,19 @@
         <v>40</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="N6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="16.5" customHeight="1">
+    </row>
+    <row r="7" spans="1:34" ht="16.5" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>34</v>
       </c>
@@ -8406,28 +10118,16 @@
         <v>40</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>40</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="16.5" customHeight="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" ht="16.5" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>35</v>
       </c>
@@ -8467,20 +10167,8 @@
       <c r="M8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="N8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="16.5" customHeight="1">
+    </row>
+    <row r="9" spans="1:34" ht="16.5" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>36</v>
       </c>
@@ -8515,27 +10203,15 @@
         <v>40</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="N9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="16.5" customHeight="1">
+    </row>
+    <row r="10" spans="1:34" ht="16.5" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>55</v>
@@ -8571,27 +10247,15 @@
         <v>40</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="16.5" customHeight="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" ht="16.5" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>57</v>
@@ -8615,36 +10279,24 @@
         <v>57</v>
       </c>
       <c r="J11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K11" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K11" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="L11" s="1" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="16.5" customHeight="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" ht="16.5" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>57</v>
@@ -8674,25 +10326,13 @@
         <v>71</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q12" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="16.5" customHeight="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" ht="16.5" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>36</v>
       </c>
@@ -8732,25 +10372,13 @@
       <c r="M13" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="N13" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q13" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="16.5" customHeight="1">
+    </row>
+    <row r="14" spans="1:34" ht="16.5" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>57</v>
@@ -8783,45 +10411,50 @@
         <v>57</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" s="3" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A15" s="17"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
-    </row>
-    <row r="16" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A16" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" s="3" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A15" s="29"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="15"/>
+      <c r="U15" s="15"/>
+      <c r="V15" s="15"/>
+      <c r="W15" s="15"/>
+      <c r="X15" s="15"/>
+      <c r="Y15" s="15"/>
+      <c r="Z15" s="15"/>
+      <c r="AA15" s="15"/>
+      <c r="AB15" s="15"/>
+      <c r="AC15" s="15"/>
+      <c r="AD15" s="15"/>
+      <c r="AE15" s="15"/>
+      <c r="AF15" s="15"/>
+      <c r="AG15" s="15"/>
+      <c r="AH15" s="15"/>
+    </row>
+    <row r="16" spans="1:34" ht="16.5" customHeight="1">
+      <c r="A16" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="12"/>
+      <c r="B16" s="37"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -8833,16 +10466,33 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-    </row>
-    <row r="17" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A17" s="19" t="s">
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="15"/>
+      <c r="S16" s="15"/>
+      <c r="T16" s="15"/>
+      <c r="U16" s="15"/>
+      <c r="V16" s="15"/>
+      <c r="W16" s="15"/>
+      <c r="X16" s="15"/>
+      <c r="Y16" s="15"/>
+      <c r="Z16" s="15"/>
+      <c r="AA16" s="15"/>
+      <c r="AB16" s="15"/>
+      <c r="AC16" s="15"/>
+      <c r="AD16" s="15"/>
+      <c r="AE16" s="15"/>
+      <c r="AF16" s="15"/>
+      <c r="AG16" s="15"/>
+      <c r="AH16" s="15"/>
+    </row>
+    <row r="17" spans="1:34" ht="16.5" customHeight="1">
+      <c r="A17" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="6"/>
+      <c r="B17" s="25"/>
       <c r="C17" s="1" t="s">
         <v>47</v>
       </c>
@@ -8876,24 +10526,33 @@
       <c r="M17" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="N17" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q17" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A18" s="19" t="s">
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="15"/>
+      <c r="U17" s="15"/>
+      <c r="V17" s="15"/>
+      <c r="W17" s="15"/>
+      <c r="X17" s="15"/>
+      <c r="Y17" s="15"/>
+      <c r="Z17" s="15"/>
+      <c r="AA17" s="15"/>
+      <c r="AB17" s="15"/>
+      <c r="AC17" s="15"/>
+      <c r="AD17" s="15"/>
+      <c r="AE17" s="15"/>
+      <c r="AF17" s="15"/>
+      <c r="AG17" s="15"/>
+      <c r="AH17" s="15"/>
+    </row>
+    <row r="18" spans="1:34" ht="16.5" customHeight="1">
+      <c r="A18" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="B18" s="6"/>
+      <c r="B18" s="25"/>
       <c r="C18" s="1" t="s">
         <v>47</v>
       </c>
@@ -8927,24 +10586,33 @@
       <c r="M18" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="N18" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q18" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A19" s="19" t="s">
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="15"/>
+      <c r="T18" s="15"/>
+      <c r="U18" s="15"/>
+      <c r="V18" s="15"/>
+      <c r="W18" s="15"/>
+      <c r="X18" s="15"/>
+      <c r="Y18" s="15"/>
+      <c r="Z18" s="15"/>
+      <c r="AA18" s="15"/>
+      <c r="AB18" s="15"/>
+      <c r="AC18" s="15"/>
+      <c r="AD18" s="15"/>
+      <c r="AE18" s="15"/>
+      <c r="AF18" s="15"/>
+      <c r="AG18" s="15"/>
+      <c r="AH18" s="15"/>
+    </row>
+    <row r="19" spans="1:34" ht="16.5" customHeight="1">
+      <c r="A19" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="B19" s="6"/>
+      <c r="B19" s="25"/>
       <c r="C19" s="1" t="s">
         <v>47</v>
       </c>
@@ -8978,24 +10646,33 @@
       <c r="M19" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="N19" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q19" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A20" s="19" t="s">
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="15"/>
+      <c r="S19" s="15"/>
+      <c r="T19" s="15"/>
+      <c r="U19" s="15"/>
+      <c r="V19" s="15"/>
+      <c r="W19" s="15"/>
+      <c r="X19" s="15"/>
+      <c r="Y19" s="15"/>
+      <c r="Z19" s="15"/>
+      <c r="AA19" s="15"/>
+      <c r="AB19" s="15"/>
+      <c r="AC19" s="15"/>
+      <c r="AD19" s="15"/>
+      <c r="AE19" s="15"/>
+      <c r="AF19" s="15"/>
+      <c r="AG19" s="15"/>
+      <c r="AH19" s="15"/>
+    </row>
+    <row r="20" spans="1:34" ht="16.5" customHeight="1">
+      <c r="A20" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="B20" s="6"/>
+      <c r="B20" s="25"/>
       <c r="C20" s="1" t="s">
         <v>47</v>
       </c>
@@ -9029,24 +10706,33 @@
       <c r="M20" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="N20" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P20" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q20" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A21" s="19" t="s">
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="15"/>
+      <c r="S20" s="15"/>
+      <c r="T20" s="15"/>
+      <c r="U20" s="15"/>
+      <c r="V20" s="15"/>
+      <c r="W20" s="15"/>
+      <c r="X20" s="15"/>
+      <c r="Y20" s="15"/>
+      <c r="Z20" s="15"/>
+      <c r="AA20" s="15"/>
+      <c r="AB20" s="15"/>
+      <c r="AC20" s="15"/>
+      <c r="AD20" s="15"/>
+      <c r="AE20" s="15"/>
+      <c r="AF20" s="15"/>
+      <c r="AG20" s="15"/>
+      <c r="AH20" s="15"/>
+    </row>
+    <row r="21" spans="1:34" ht="16.5" customHeight="1">
+      <c r="A21" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="6"/>
+      <c r="B21" s="25"/>
       <c r="C21" s="1" t="s">
         <v>47</v>
       </c>
@@ -9080,24 +10766,33 @@
       <c r="M21" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="N21" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="O21" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P21" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q21" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A22" s="19" t="s">
-        <v>345</v>
-      </c>
-      <c r="B22" s="6"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="15"/>
+      <c r="S21" s="15"/>
+      <c r="T21" s="15"/>
+      <c r="U21" s="15"/>
+      <c r="V21" s="15"/>
+      <c r="W21" s="15"/>
+      <c r="X21" s="15"/>
+      <c r="Y21" s="15"/>
+      <c r="Z21" s="15"/>
+      <c r="AA21" s="15"/>
+      <c r="AB21" s="15"/>
+      <c r="AC21" s="15"/>
+      <c r="AD21" s="15"/>
+      <c r="AE21" s="15"/>
+      <c r="AF21" s="15"/>
+      <c r="AG21" s="15"/>
+      <c r="AH21" s="15"/>
+    </row>
+    <row r="22" spans="1:34" ht="16.5" customHeight="1">
+      <c r="A22" s="24" t="s">
+        <v>342</v>
+      </c>
+      <c r="B22" s="25"/>
       <c r="C22" s="1" t="s">
         <v>47</v>
       </c>
@@ -9131,24 +10826,33 @@
       <c r="M22" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="N22" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P22" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q22" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A23" s="14" t="s">
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="15"/>
+      <c r="S22" s="15"/>
+      <c r="T22" s="15"/>
+      <c r="U22" s="15"/>
+      <c r="V22" s="15"/>
+      <c r="W22" s="15"/>
+      <c r="X22" s="15"/>
+      <c r="Y22" s="15"/>
+      <c r="Z22" s="15"/>
+      <c r="AA22" s="15"/>
+      <c r="AB22" s="15"/>
+      <c r="AC22" s="15"/>
+      <c r="AD22" s="15"/>
+      <c r="AE22" s="15"/>
+      <c r="AF22" s="15"/>
+      <c r="AG22" s="15"/>
+      <c r="AH22" s="15"/>
+    </row>
+    <row r="23" spans="1:34" ht="16.5" customHeight="1">
+      <c r="A23" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="B23" s="15"/>
+      <c r="B23" s="27"/>
       <c r="C23" s="1" t="s">
         <v>47</v>
       </c>
@@ -9171,7 +10875,7 @@
         <v>47</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>47</v>
@@ -9182,24 +10886,33 @@
       <c r="M23" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="N23" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="O23" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P23" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q23" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A24" s="19" t="s">
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="15"/>
+      <c r="S23" s="15"/>
+      <c r="T23" s="15"/>
+      <c r="U23" s="15"/>
+      <c r="V23" s="15"/>
+      <c r="W23" s="15"/>
+      <c r="X23" s="15"/>
+      <c r="Y23" s="15"/>
+      <c r="Z23" s="15"/>
+      <c r="AA23" s="15"/>
+      <c r="AB23" s="15"/>
+      <c r="AC23" s="15"/>
+      <c r="AD23" s="15"/>
+      <c r="AE23" s="15"/>
+      <c r="AF23" s="15"/>
+      <c r="AG23" s="15"/>
+      <c r="AH23" s="15"/>
+    </row>
+    <row r="24" spans="1:34" ht="16.5" customHeight="1">
+      <c r="A24" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="B24" s="6"/>
+      <c r="B24" s="25"/>
       <c r="C24" s="1" t="s">
         <v>47</v>
       </c>
@@ -9225,83 +10938,101 @@
         <v>47</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>47</v>
       </c>
       <c r="M24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="15"/>
+      <c r="S24" s="15"/>
+      <c r="T24" s="15"/>
+      <c r="U24" s="15"/>
+      <c r="V24" s="15"/>
+      <c r="W24" s="15"/>
+      <c r="X24" s="15"/>
+      <c r="Y24" s="15"/>
+      <c r="Z24" s="15"/>
+      <c r="AA24" s="15"/>
+      <c r="AB24" s="15"/>
+      <c r="AC24" s="15"/>
+      <c r="AD24" s="15"/>
+      <c r="AE24" s="15"/>
+      <c r="AF24" s="15"/>
+      <c r="AG24" s="15"/>
+      <c r="AH24" s="15"/>
+    </row>
+    <row r="25" spans="1:34" ht="16.5" customHeight="1">
+      <c r="A25" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" s="25"/>
+      <c r="C25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L25" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="N24" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="O24" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P24" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q24" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A25" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>351</v>
-      </c>
       <c r="M25" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="N25" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="O25" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P25" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q25" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A26" s="19" t="s">
-        <v>346</v>
-      </c>
-      <c r="B26" s="6"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="15"/>
+      <c r="S25" s="15"/>
+      <c r="T25" s="15"/>
+      <c r="U25" s="15"/>
+      <c r="V25" s="15"/>
+      <c r="W25" s="15"/>
+      <c r="X25" s="15"/>
+      <c r="Y25" s="15"/>
+      <c r="Z25" s="15"/>
+      <c r="AA25" s="15"/>
+      <c r="AB25" s="15"/>
+      <c r="AC25" s="15"/>
+      <c r="AD25" s="15"/>
+      <c r="AE25" s="15"/>
+      <c r="AF25" s="15"/>
+      <c r="AG25" s="15"/>
+      <c r="AH25" s="15"/>
+    </row>
+    <row r="26" spans="1:34" ht="16.5" customHeight="1">
+      <c r="A26" s="24" t="s">
+        <v>343</v>
+      </c>
+      <c r="B26" s="25"/>
       <c r="C26" s="1" t="s">
         <v>47</v>
       </c>
@@ -9335,150 +11066,177 @@
       <c r="M26" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="N26" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="O26" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="P26" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q26" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" s="3" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A27" s="16" t="s">
-        <v>347</v>
-      </c>
-      <c r="B27" s="16"/>
-      <c r="C27" s="13" t="s">
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="15"/>
+      <c r="S26" s="15"/>
+      <c r="T26" s="15"/>
+      <c r="U26" s="15"/>
+      <c r="V26" s="15"/>
+      <c r="W26" s="15"/>
+      <c r="X26" s="15"/>
+      <c r="Y26" s="15"/>
+      <c r="Z26" s="15"/>
+      <c r="AA26" s="15"/>
+      <c r="AB26" s="15"/>
+      <c r="AC26" s="15"/>
+      <c r="AD26" s="15"/>
+      <c r="AE26" s="15"/>
+      <c r="AF26" s="15"/>
+      <c r="AG26" s="15"/>
+      <c r="AH26" s="15"/>
+    </row>
+    <row r="27" spans="1:34" s="3" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A27" s="28" t="s">
+        <v>344</v>
+      </c>
+      <c r="B27" s="28"/>
+      <c r="C27" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E27" s="13" t="s">
+      <c r="E27" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F27" s="13" t="s">
+      <c r="F27" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G27" s="13" t="s">
+      <c r="G27" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H27" s="13" t="s">
+      <c r="H27" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="I27" s="13" t="s">
+      <c r="I27" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="J27" s="13" t="s">
+      <c r="J27" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="K27" s="13" t="s">
+      <c r="K27" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="L27" s="13" t="s">
+      <c r="L27" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="M27" s="13" t="s">
+      <c r="M27" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="N27" s="13" t="s">
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="15"/>
+      <c r="R27" s="15"/>
+      <c r="S27" s="15"/>
+      <c r="T27" s="15"/>
+      <c r="U27" s="15"/>
+      <c r="V27" s="15"/>
+      <c r="W27" s="15"/>
+      <c r="X27" s="15"/>
+      <c r="Y27" s="15"/>
+      <c r="Z27" s="15"/>
+      <c r="AA27" s="15"/>
+      <c r="AB27" s="15"/>
+      <c r="AC27" s="15"/>
+      <c r="AD27" s="15"/>
+      <c r="AE27" s="15"/>
+      <c r="AF27" s="15"/>
+      <c r="AG27" s="15"/>
+      <c r="AH27" s="15"/>
+    </row>
+    <row r="28" spans="1:34" s="3" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A28" s="38" t="s">
+        <v>345</v>
+      </c>
+      <c r="B28" s="39"/>
+      <c r="C28" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="O27" s="13" t="s">
+      <c r="E28" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="P27" s="13" t="s">
+      <c r="F28" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="Q27" s="13" t="s">
+      <c r="G28" s="5" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" s="3" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A28" s="36" t="s">
-        <v>348</v>
-      </c>
-      <c r="B28" s="37"/>
-      <c r="C28" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D28" s="13" t="s">
+      <c r="H28" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E28" s="13" t="s">
+      <c r="I28" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F28" s="13" t="s">
+      <c r="J28" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G28" s="13" t="s">
+      <c r="K28" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H28" s="13" t="s">
+      <c r="L28" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="I28" s="13" t="s">
+      <c r="M28" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="J28" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="K28" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="L28" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="M28" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="N28" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="O28" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="P28" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q28" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" ht="21.75" customHeight="1">
-      <c r="A31" s="20" t="s">
+      <c r="N28" s="15"/>
+      <c r="O28" s="15"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="15"/>
+      <c r="R28" s="15"/>
+      <c r="S28" s="15"/>
+      <c r="T28" s="15"/>
+      <c r="U28" s="15"/>
+      <c r="V28" s="15"/>
+      <c r="W28" s="15"/>
+      <c r="X28" s="15"/>
+      <c r="Y28" s="15"/>
+      <c r="Z28" s="15"/>
+      <c r="AA28" s="15"/>
+      <c r="AB28" s="15"/>
+      <c r="AC28" s="15"/>
+      <c r="AD28" s="15"/>
+      <c r="AE28" s="15"/>
+      <c r="AF28" s="15"/>
+      <c r="AG28" s="15"/>
+      <c r="AH28" s="15"/>
+    </row>
+    <row r="31" spans="1:34" ht="21.75" customHeight="1">
+      <c r="A31" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20" t="s">
+      <c r="B31" s="23"/>
+      <c r="C31" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-    </row>
-    <row r="32" spans="1:17" ht="21.75" customHeight="1">
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+    </row>
+    <row r="32" spans="1:34" ht="21.75" customHeight="1">
       <c r="A32" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="22" t="s">
+      <c r="C32" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
     </row>
     <row r="33" spans="1:8" ht="21.75" customHeight="1">
       <c r="A33" s="2" t="s">
@@ -9487,14 +11245,14 @@
       <c r="B33" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="23" t="s">
+      <c r="C33" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
     </row>
     <row r="34" spans="1:8" ht="21.75" customHeight="1">
       <c r="A34" s="2" t="s">
@@ -9503,14 +11261,14 @@
       <c r="B34" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C34" s="22" t="s">
+      <c r="C34" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
     </row>
     <row r="35" spans="1:8" ht="21.75" customHeight="1">
       <c r="A35" s="2" t="s">
@@ -9519,14 +11277,14 @@
       <c r="B35" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C35" s="22" t="s">
+      <c r="C35" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
     </row>
     <row r="36" spans="1:8" ht="21.75" customHeight="1">
       <c r="A36" s="2" t="s">
@@ -9535,14 +11293,14 @@
       <c r="B36" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C36" s="22" t="s">
+      <c r="C36" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
     </row>
     <row r="37" spans="1:8" ht="21.75" customHeight="1">
       <c r="A37" s="2" t="s">
@@ -9551,14 +11309,14 @@
       <c r="B37" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C37" s="22" t="s">
+      <c r="C37" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
     </row>
     <row r="38" spans="1:8" ht="21.75" customHeight="1">
       <c r="A38" s="2" t="s">
@@ -9567,14 +11325,14 @@
       <c r="B38" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C38" s="22" t="s">
+      <c r="C38" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
     </row>
     <row r="39" spans="1:8" ht="21.75" customHeight="1">
       <c r="A39" s="2" t="s">
@@ -9583,14 +11341,14 @@
       <c r="B39" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C39" s="23" t="s">
+      <c r="C39" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="23"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
     </row>
     <row r="40" spans="1:8" ht="21.75" customHeight="1">
       <c r="A40" s="2" t="s">
@@ -9599,14 +11357,14 @@
       <c r="B40" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C40" s="22" t="s">
+      <c r="C40" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="22"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
     </row>
     <row r="41" spans="1:8" ht="21.75" customHeight="1">
       <c r="A41" s="2" t="s">
@@ -9615,14 +11373,14 @@
       <c r="B41" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C41" s="22">
+      <c r="C41" s="21">
         <v>1112222</v>
       </c>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="22"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
     </row>
     <row r="42" spans="1:8" ht="21.75" customHeight="1">
       <c r="A42" s="2" t="s">
@@ -9631,14 +11389,14 @@
       <c r="B42" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C42" s="22">
+      <c r="C42" s="21">
         <v>11122223333</v>
       </c>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="22"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="21"/>
     </row>
     <row r="43" spans="1:8" ht="21.75" customHeight="1">
       <c r="A43" s="2" t="s">
@@ -9647,14 +11405,14 @@
       <c r="B43" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C43" s="22" t="s">
+      <c r="C43" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="22"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
     </row>
     <row r="44" spans="1:8" ht="21.75" customHeight="1">
       <c r="A44" s="2" t="s">
@@ -9663,14 +11421,14 @@
       <c r="B44" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C44" s="22" t="s">
+      <c r="C44" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="22"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="21"/>
     </row>
     <row r="45" spans="1:8" ht="21.75" customHeight="1">
       <c r="A45" s="2" t="s">
@@ -9679,35 +11437,23 @@
       <c r="B45" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C45" s="22">
+      <c r="C45" s="21">
         <v>1234567</v>
       </c>
-      <c r="D45" s="22"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="22"/>
-      <c r="G45" s="22"/>
-      <c r="H45" s="22"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="C45:H45"/>
-    <mergeCell ref="C39:H39"/>
-    <mergeCell ref="C40:H40"/>
-    <mergeCell ref="C41:H41"/>
-    <mergeCell ref="C42:H42"/>
-    <mergeCell ref="C43:H43"/>
-    <mergeCell ref="C44:H44"/>
-    <mergeCell ref="C33:H33"/>
-    <mergeCell ref="C34:H34"/>
-    <mergeCell ref="C35:H35"/>
-    <mergeCell ref="C36:H36"/>
-    <mergeCell ref="C37:H37"/>
-    <mergeCell ref="C38:H38"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:H31"/>
-    <mergeCell ref="C32:H32"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:M2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A25:B25"/>
@@ -9717,12 +11463,24 @@
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:Q2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C38:H38"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:H31"/>
+    <mergeCell ref="C32:H32"/>
+    <mergeCell ref="C33:H33"/>
+    <mergeCell ref="C34:H34"/>
+    <mergeCell ref="C35:H35"/>
+    <mergeCell ref="C36:H36"/>
+    <mergeCell ref="C37:H37"/>
+    <mergeCell ref="C45:H45"/>
+    <mergeCell ref="C39:H39"/>
+    <mergeCell ref="C40:H40"/>
+    <mergeCell ref="C41:H41"/>
+    <mergeCell ref="C42:H42"/>
+    <mergeCell ref="C43:H43"/>
+    <mergeCell ref="C44:H44"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9730,7 +11488,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:A110"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -9740,557 +11498,558 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="6" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="6" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="6" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="6" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="6" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="6" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="6" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="6" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="6" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="6" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="6" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="6" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="6" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="6" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="6" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="6" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="6" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="6" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="6" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="6" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="6" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="6" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="21" t="s">
+      <c r="A24" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="6" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="21" t="s">
+      <c r="A28" s="6" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="6" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="21" t="s">
+      <c r="A30" s="6" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="21" t="s">
+      <c r="A31" s="6" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="21" t="s">
+      <c r="A32" s="6" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="21" t="s">
+      <c r="A33" s="6" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="21" t="s">
+      <c r="A34" s="6" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="21" t="s">
+      <c r="A35" s="6" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="21" t="s">
+      <c r="A36" s="6" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="21" t="s">
+      <c r="A37" s="6" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="21" t="s">
+      <c r="A38" s="6" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="21" t="s">
+      <c r="A39" s="6" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="21" t="s">
+      <c r="A40" s="6" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="21" t="s">
+      <c r="A41" s="6" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="21" t="s">
+      <c r="A42" s="6" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="21" t="s">
+      <c r="A43" s="6" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="21" t="s">
+      <c r="A44" s="6" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="21" t="s">
+      <c r="A45" s="6" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="21" t="s">
+      <c r="A46" s="6" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="21" t="s">
+      <c r="A47" s="6" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="21" t="s">
+      <c r="A48" s="6" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="21" t="s">
+      <c r="A49" s="6" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="21" t="s">
+      <c r="A50" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="21" t="s">
+      <c r="A51" s="6" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="21" t="s">
+      <c r="A52" s="6" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="53" spans="1:1">
-      <c r="A53" s="21" t="s">
+      <c r="A53" s="6" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="54" spans="1:1">
-      <c r="A54" s="21" t="s">
+      <c r="A54" s="6" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="55" spans="1:1">
-      <c r="A55" s="21" t="s">
+      <c r="A55" s="6" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56" s="21" t="s">
+      <c r="A56" s="6" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="57" spans="1:1">
-      <c r="A57" s="21" t="s">
+      <c r="A57" s="6" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="58" spans="1:1">
-      <c r="A58" s="21" t="s">
+      <c r="A58" s="6" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="59" spans="1:1">
-      <c r="A59" s="21" t="s">
+      <c r="A59" s="6" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="60" spans="1:1">
-      <c r="A60" s="21" t="s">
+      <c r="A60" s="6" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="61" spans="1:1">
-      <c r="A61" s="21" t="s">
+      <c r="A61" s="6" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="62" spans="1:1">
-      <c r="A62" s="21" t="s">
+      <c r="A62" s="6" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="63" spans="1:1">
-      <c r="A63" s="21" t="s">
+      <c r="A63" s="6" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="64" spans="1:1">
-      <c r="A64" s="21" t="s">
+      <c r="A64" s="6" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="65" spans="1:1">
-      <c r="A65" s="21" t="s">
+      <c r="A65" s="6" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="66" spans="1:1">
-      <c r="A66" s="21" t="s">
+      <c r="A66" s="6" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="67" spans="1:1">
-      <c r="A67" s="21" t="s">
+      <c r="A67" s="6" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="68" spans="1:1">
-      <c r="A68" s="21" t="s">
+      <c r="A68" s="6" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="69" spans="1:1">
-      <c r="A69" s="21" t="s">
+      <c r="A69" s="6" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="70" spans="1:1">
-      <c r="A70" s="21" t="s">
+      <c r="A70" s="6" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="71" spans="1:1">
-      <c r="A71" s="21" t="s">
+      <c r="A71" s="6" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="72" spans="1:1">
-      <c r="A72" s="21" t="s">
+      <c r="A72" s="6" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="73" spans="1:1">
-      <c r="A73" s="21" t="s">
+      <c r="A73" s="6" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="74" spans="1:1">
-      <c r="A74" s="21" t="s">
+      <c r="A74" s="6" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="75" spans="1:1">
-      <c r="A75" s="21" t="s">
+      <c r="A75" s="6" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="76" spans="1:1">
-      <c r="A76" s="21" t="s">
+      <c r="A76" s="6" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="77" spans="1:1">
-      <c r="A77" s="21" t="s">
+      <c r="A77" s="6" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="78" spans="1:1">
-      <c r="A78" s="21" t="s">
+      <c r="A78" s="6" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="79" spans="1:1">
-      <c r="A79" s="21" t="s">
+      <c r="A79" s="6" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="80" spans="1:1">
-      <c r="A80" s="21" t="s">
+      <c r="A80" s="6" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="81" spans="1:1">
-      <c r="A81" s="21" t="s">
+      <c r="A81" s="6" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="82" spans="1:1">
-      <c r="A82" s="21" t="s">
+      <c r="A82" s="6" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="83" spans="1:1">
-      <c r="A83" s="21" t="s">
+      <c r="A83" s="6" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="84" spans="1:1">
-      <c r="A84" s="21" t="s">
+      <c r="A84" s="6" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="85" spans="1:1">
-      <c r="A85" s="21" t="s">
+      <c r="A85" s="6" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="86" spans="1:1">
-      <c r="A86" s="21" t="s">
+      <c r="A86" s="6" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="87" spans="1:1">
-      <c r="A87" s="21" t="s">
+      <c r="A87" s="6" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="88" spans="1:1">
-      <c r="A88" s="21" t="s">
+      <c r="A88" s="6" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="89" spans="1:1">
-      <c r="A89" s="21" t="s">
+      <c r="A89" s="6" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="90" spans="1:1">
-      <c r="A90" s="21" t="s">
+      <c r="A90" s="6" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="91" spans="1:1">
-      <c r="A91" s="21" t="s">
+      <c r="A91" s="6" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="92" spans="1:1">
-      <c r="A92" s="21" t="s">
+      <c r="A92" s="6" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="93" spans="1:1">
-      <c r="A93" s="21" t="s">
+      <c r="A93" s="6" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="94" spans="1:1">
-      <c r="A94" s="21" t="s">
+      <c r="A94" s="6" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="95" spans="1:1">
-      <c r="A95" s="21" t="s">
+      <c r="A95" s="6" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="96" spans="1:1">
-      <c r="A96" s="21" t="s">
+      <c r="A96" s="6" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="97" spans="1:1">
-      <c r="A97" s="21" t="s">
+      <c r="A97" s="6" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="98" spans="1:1">
-      <c r="A98" s="21" t="s">
+      <c r="A98" s="6" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="99" spans="1:1">
-      <c r="A99" s="21" t="s">
+      <c r="A99" s="6" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="100" spans="1:1">
-      <c r="A100" s="21" t="s">
+      <c r="A100" s="6" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="101" spans="1:1">
-      <c r="A101" s="21" t="s">
+      <c r="A101" s="6" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="21" t="s">
+      <c r="A102" s="6" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="103" spans="1:1">
-      <c r="A103" s="21" t="s">
+      <c r="A103" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="104" spans="1:1">
-      <c r="A104" s="21" t="s">
+      <c r="A104" s="6" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="105" spans="1:1">
-      <c r="A105" s="21" t="s">
+      <c r="A105" s="6" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="106" spans="1:1">
-      <c r="A106" s="21" t="s">
+      <c r="A106" s="6" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="107" spans="1:1">
-      <c r="A107" s="21" t="s">
+      <c r="A107" s="6" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="108" spans="1:1">
-      <c r="A108" s="21" t="s">
+      <c r="A108" s="6" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="109" spans="1:1">
-      <c r="A109" s="21" t="s">
+      <c r="A109" s="6" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="110" spans="1:1">
-      <c r="A110" s="21" t="s">
+      <c r="A110" s="6" t="s">
         <v>99</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
--- a/EC-site/ECサイト＿テスト仕様書.xlsx
+++ b/EC-site/ECサイト＿テスト仕様書.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\taka\Desktop\env\test-document\EC-site\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\env\springworkspace\test-document\EC-site\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E741FA4-943F-42E1-AAC2-7A402B7607DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="テスト仕様書" sheetId="1" r:id="rId1"/>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1382" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1413" uniqueCount="402">
   <si>
     <t>ECサイト　ブラックボックステスト仕様書</t>
     <rPh sb="17" eb="20">
@@ -1021,10 +1020,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>test@test.co.jp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>samplesample.com</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1353,20 +1348,6 @@
     </rPh>
     <rPh sb="34" eb="36">
       <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>画面の挙動
-正常系</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>キョドウ</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>セイジョウケイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4775,11 +4756,408 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>システムの動作系
+（異常系）</t>
+    <rPh sb="5" eb="8">
+      <t>ドウサケイ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>イジョウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録ボタンをダブルクリックのダブルサブミット対策はしているか</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>タイサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①入力欄にユーザ登録デシジョンテーブルのTC1を入力
+②登録ボタンをダブルクリックする</t>
+    <rPh sb="24" eb="26">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBに2重で登録されていないこと</t>
+    <rPh sb="4" eb="5">
+      <t>ジュウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録が完了した後リロードしてもダブルサブミットにはならないか</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>アト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①入力欄にユーザ登録デシジョンテーブルのTC1を入力
+②登録ボタンを押下する
+③遷移先のログイン画面でブラウザリロードを行う</t>
+    <rPh sb="24" eb="26">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="40" eb="43">
+      <t>センイサキ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBに２重で登録されていないこと</t>
+    <rPh sb="4" eb="5">
+      <t>ジュウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「この内容で注文する」ボタンをダブルクリックしたときのダブルサブミット対策はしているか</t>
+    <rPh sb="3" eb="5">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>チュウモン</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>タイサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>注文完了画面でリロードしてもダブルサブミットにはならないか</t>
+    <rPh sb="0" eb="2">
+      <t>チュウモン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①入力欄にユーザ登録デシジョンテーブルのTC１を入力
+②登録ボタンを押下する
+③遷移先のログイン画面で戻るボタンを押下
+④新規ユーザ登録画面で再度登録ボタンを押下する</t>
+    <rPh sb="24" eb="26">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="40" eb="43">
+      <t>センイサキ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="66" eb="70">
+      <t>トウロクガメン</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>サイド</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBに登録後、再度戻って登録しても登録されないようになっているか</t>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サイド</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①入力欄にお届け先情報デシジョンテーブルのTC1を入力
+②登録ボタンをダブルクリックする</t>
+    <rPh sb="6" eb="7">
+      <t>トド</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>サキジョウホウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①入力欄にお届け先情報デシジョンテーブルのTC1を入力
+②「この内容で注文する」ボタンを押下する
+③遷移先の注文完了画面でブラウザリロードを行う</t>
+    <rPh sb="6" eb="7">
+      <t>トド</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>サキジョウホウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>チュウモン</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="50" eb="53">
+      <t>センイサキ</t>
+    </rPh>
+    <rPh sb="54" eb="60">
+      <t>チュウモンカンリョウガメン</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①入力欄にお届け先情報デシジョンテーブルのTC2を入力
+②「この内容で注文する」ボタンを押下する
+③遷移先の注文完了画面で戻るボタンを押下
+④新規ユーザ登録画面で再度登録ボタンを押下する</t>
+    <rPh sb="6" eb="7">
+      <t>トド</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>サキジョウホウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>チュウモン</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="50" eb="53">
+      <t>センイサキ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>チュウモン</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="76" eb="80">
+      <t>トウロクガメン</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>サイド</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>注文完了後、再度戻って注文しても注文されないようになっているか</t>
+    <rPh sb="0" eb="2">
+      <t>チュウモン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サイド</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>チュウモン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>チュウモン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>注文が2重で登録されていないこと</t>
+    <rPh sb="0" eb="2">
+      <t>チュウモン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ジュウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・DBに商品情報が存在しないこと</t>
+    <rPh sb="4" eb="8">
+      <t>ショウヒンジョウホウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ソンザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「1件もありません」等正しく画面が表示されていること</t>
+    <rPh sb="2" eb="3">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>正常系：</t>
+    <rPh sb="0" eb="2">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（テスト実施の時間から4時間後を選択）</t>
+    <rPh sb="4" eb="6">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>ジカンゴ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（テスト実施の時間から1時間後を選択）</t>
+    <rPh sb="4" eb="6">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>ジカンゴ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="12">
     <font>
       <sz val="11"/>
@@ -4875,7 +5253,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4909,12 +5287,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5115,14 +5487,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -5145,26 +5529,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -5175,7 +5547,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5457,12 +5829,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
+      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.375" defaultRowHeight="13.5"/>
@@ -5546,19 +5918,19 @@
         <v>13</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
@@ -5569,19 +5941,19 @@
         <v>13</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>196</v>
-      </c>
       <c r="D5" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -5592,19 +5964,19 @@
         <v>13</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>196</v>
-      </c>
       <c r="D6" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
@@ -5615,19 +5987,19 @@
         <v>13</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>196</v>
-      </c>
       <c r="D7" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -5638,19 +6010,19 @@
         <v>13</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>196</v>
-      </c>
       <c r="D8" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -5661,19 +6033,19 @@
         <v>13</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>196</v>
-      </c>
       <c r="D9" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
@@ -5684,19 +6056,19 @@
         <v>13</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>196</v>
-      </c>
       <c r="D10" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
@@ -5707,19 +6079,19 @@
         <v>13</v>
       </c>
       <c r="B11" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>196</v>
-      </c>
       <c r="D11" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
@@ -5730,19 +6102,19 @@
         <v>13</v>
       </c>
       <c r="B12" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>196</v>
-      </c>
       <c r="D12" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -5753,19 +6125,19 @@
         <v>13</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>196</v>
-      </c>
       <c r="D13" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
@@ -5776,19 +6148,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>196</v>
-      </c>
       <c r="D14" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
@@ -5799,19 +6171,19 @@
         <v>13</v>
       </c>
       <c r="B15" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>196</v>
-      </c>
       <c r="D15" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
@@ -5822,19 +6194,19 @@
         <v>13</v>
       </c>
       <c r="B16" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>196</v>
-      </c>
       <c r="D16" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
@@ -5845,19 +6217,19 @@
         <v>13</v>
       </c>
       <c r="B17" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>196</v>
-      </c>
       <c r="D17" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
@@ -5868,19 +6240,19 @@
         <v>13</v>
       </c>
       <c r="B18" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>196</v>
-      </c>
       <c r="D18" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
@@ -5891,226 +6263,226 @@
         <v>13</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>212</v>
+        <v>381</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>213</v>
+        <v>382</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>235</v>
+        <v>383</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>215</v>
+        <v>384</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" s="14" customFormat="1" ht="58.5" customHeight="1">
+    <row r="20" spans="1:9" s="14" customFormat="1" ht="93.75" customHeight="1">
       <c r="A20" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>212</v>
+        <v>381</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>231</v>
+        <v>385</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>239</v>
+        <v>386</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>236</v>
+        <v>387</v>
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
     </row>
-    <row r="21" spans="1:9" s="14" customFormat="1" ht="76.5" customHeight="1">
+    <row r="21" spans="1:9" s="14" customFormat="1" ht="96.75" customHeight="1">
       <c r="A21" s="7" t="s">
-        <v>237</v>
+        <v>13</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>194</v>
+        <v>381</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>266</v>
+        <v>391</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>230</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>216</v>
+        <v>390</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>263</v>
+        <v>387</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" s="14" customFormat="1" ht="76.5" customHeight="1">
+    <row r="22" spans="1:9" s="14" customFormat="1" ht="58.5" customHeight="1">
       <c r="A22" s="7" t="s">
-        <v>237</v>
+        <v>13</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>261</v>
+        <v>211</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>267</v>
+        <v>212</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>264</v>
+        <v>213</v>
       </c>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
     </row>
-    <row r="23" spans="1:9" s="14" customFormat="1" ht="76.5" customHeight="1">
+    <row r="23" spans="1:9" s="14" customFormat="1" ht="58.5" customHeight="1">
       <c r="A23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="E23" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>266</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>218</v>
-      </c>
       <c r="F23" s="7" t="s">
-        <v>265</v>
+        <v>234</v>
       </c>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" s="14" customFormat="1" ht="88.5" customHeight="1">
+    <row r="24" spans="1:9" s="14" customFormat="1" ht="76.5" customHeight="1">
       <c r="A24" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>268</v>
+        <v>193</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>271</v>
+        <v>258</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>264</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>272</v>
+        <v>214</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" s="14" customFormat="1" ht="58.5" customHeight="1">
+    <row r="25" spans="1:9" s="14" customFormat="1" ht="76.5" customHeight="1">
       <c r="A25" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>274</v>
+        <v>215</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" s="14" customFormat="1" ht="58.5" customHeight="1">
+    <row r="26" spans="1:9" s="14" customFormat="1" ht="76.5" customHeight="1">
       <c r="A26" s="7" t="s">
-        <v>276</v>
+        <v>235</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>278</v>
+        <v>260</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>264</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>279</v>
+        <v>216</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" s="14" customFormat="1" ht="58.5" customHeight="1">
+    <row r="27" spans="1:9" s="14" customFormat="1" ht="88.5" customHeight="1">
       <c r="A27" s="7" t="s">
-        <v>281</v>
+        <v>235</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" s="14" customFormat="1" ht="90.75" customHeight="1">
+    <row r="28" spans="1:9" s="14" customFormat="1" ht="58.5" customHeight="1">
       <c r="A28" s="7" t="s">
-        <v>281</v>
+        <v>235</v>
       </c>
       <c r="B28" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="C28" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="C28" s="7" t="s">
-        <v>293</v>
-      </c>
       <c r="D28" s="7" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
@@ -6118,22 +6490,22 @@
     </row>
     <row r="29" spans="1:9" s="14" customFormat="1" ht="58.5" customHeight="1">
       <c r="A29" s="7" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
@@ -6141,22 +6513,22 @@
     </row>
     <row r="30" spans="1:9" s="14" customFormat="1" ht="58.5" customHeight="1">
       <c r="A30" s="7" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>283</v>
+        <v>397</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>292</v>
+        <v>398</v>
       </c>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
@@ -6164,45 +6536,45 @@
     </row>
     <row r="31" spans="1:9" s="14" customFormat="1" ht="58.5" customHeight="1">
       <c r="A31" s="7" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:9" s="14" customFormat="1" ht="58.5" customHeight="1">
+    <row r="32" spans="1:9" s="14" customFormat="1" ht="90.75" customHeight="1">
       <c r="A32" s="7" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
@@ -6210,22 +6582,22 @@
     </row>
     <row r="33" spans="1:9" s="14" customFormat="1" ht="58.5" customHeight="1">
       <c r="A33" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
@@ -6233,45 +6605,45 @@
     </row>
     <row r="34" spans="1:9" s="14" customFormat="1" ht="58.5" customHeight="1">
       <c r="A34" s="7" t="s">
-        <v>304</v>
+        <v>286</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>305</v>
+        <v>281</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>307</v>
+        <v>288</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" spans="1:9" s="14" customFormat="1" ht="87" customHeight="1">
+    <row r="35" spans="1:9" s="14" customFormat="1" ht="58.5" customHeight="1">
       <c r="A35" s="7" t="s">
-        <v>304</v>
+        <v>286</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
@@ -6279,91 +6651,91 @@
     </row>
     <row r="36" spans="1:9" s="14" customFormat="1" ht="58.5" customHeight="1">
       <c r="A36" s="7" t="s">
-        <v>312</v>
+        <v>286</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>313</v>
+        <v>293</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>314</v>
+        <v>294</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
     </row>
-    <row r="37" spans="1:9" s="14" customFormat="1" ht="128.25" customHeight="1">
+    <row r="37" spans="1:9" s="14" customFormat="1" ht="58.5" customHeight="1">
       <c r="A37" s="7" t="s">
-        <v>312</v>
+        <v>286</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>318</v>
+        <v>294</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
     </row>
-    <row r="38" spans="1:9" s="14" customFormat="1" ht="71.25" customHeight="1">
+    <row r="38" spans="1:9" s="14" customFormat="1" ht="58.5" customHeight="1">
       <c r="A38" s="7" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>322</v>
+        <v>303</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
     </row>
-    <row r="39" spans="1:9" s="14" customFormat="1" ht="130.5" customHeight="1">
+    <row r="39" spans="1:9" s="14" customFormat="1" ht="87" customHeight="1">
       <c r="A39" s="7" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>325</v>
+        <v>307</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>326</v>
+        <v>308</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>327</v>
+        <v>305</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
@@ -6371,91 +6743,91 @@
     </row>
     <row r="40" spans="1:9" s="14" customFormat="1" ht="58.5" customHeight="1">
       <c r="A40" s="7" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>332</v>
+        <v>312</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
       <c r="I40" s="7"/>
     </row>
-    <row r="41" spans="1:9" s="14" customFormat="1" ht="68.25" customHeight="1">
+    <row r="41" spans="1:9" s="14" customFormat="1" ht="128.25" customHeight="1">
       <c r="A41" s="7" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
     </row>
-    <row r="42" spans="1:9" s="14" customFormat="1" ht="58.5" customHeight="1">
+    <row r="42" spans="1:9" s="14" customFormat="1" ht="71.25" customHeight="1">
       <c r="A42" s="7" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>194</v>
+        <v>266</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>350</v>
+        <v>319</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>351</v>
+        <v>320</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>348</v>
+        <v>321</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>352</v>
+        <v>322</v>
       </c>
       <c r="G42" s="7"/>
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
     </row>
-    <row r="43" spans="1:9" s="14" customFormat="1" ht="58.5" customHeight="1">
+    <row r="43" spans="1:9" s="14" customFormat="1" ht="130.5" customHeight="1">
       <c r="A43" s="7" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>195</v>
+        <v>266</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>196</v>
+        <v>323</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>351</v>
+        <v>324</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>363</v>
+        <v>325</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>353</v>
+        <v>317</v>
       </c>
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
@@ -6463,45 +6835,45 @@
     </row>
     <row r="44" spans="1:9" s="14" customFormat="1" ht="58.5" customHeight="1">
       <c r="A44" s="7" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>195</v>
+        <v>266</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>196</v>
+        <v>327</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>351</v>
+        <v>330</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>364</v>
+        <v>328</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>354</v>
+        <v>329</v>
       </c>
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
     </row>
-    <row r="45" spans="1:9" s="14" customFormat="1" ht="58.5" customHeight="1">
+    <row r="45" spans="1:9" s="14" customFormat="1" ht="68.25" customHeight="1">
       <c r="A45" s="7" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>195</v>
+        <v>266</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>196</v>
+        <v>327</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>351</v>
+        <v>331</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>365</v>
+        <v>328</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>355</v>
+        <v>332</v>
       </c>
       <c r="G45" s="7"/>
       <c r="H45" s="7"/>
@@ -6509,22 +6881,22 @@
     </row>
     <row r="46" spans="1:9" s="14" customFormat="1" ht="58.5" customHeight="1">
       <c r="A46" s="7" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>196</v>
+        <v>348</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>366</v>
+        <v>346</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="G46" s="7"/>
       <c r="H46" s="7"/>
@@ -6532,22 +6904,22 @@
     </row>
     <row r="47" spans="1:9" s="14" customFormat="1" ht="58.5" customHeight="1">
       <c r="A47" s="7" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B47" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C47" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="C47" s="7" t="s">
-        <v>196</v>
-      </c>
       <c r="D47" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="F47" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>357</v>
       </c>
       <c r="G47" s="7"/>
       <c r="H47" s="7"/>
@@ -6555,22 +6927,22 @@
     </row>
     <row r="48" spans="1:9" s="14" customFormat="1" ht="58.5" customHeight="1">
       <c r="A48" s="7" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B48" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C48" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="C48" s="7" t="s">
-        <v>196</v>
-      </c>
       <c r="D48" s="7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="G48" s="7"/>
       <c r="H48" s="7"/>
@@ -6578,22 +6950,22 @@
     </row>
     <row r="49" spans="1:9" s="14" customFormat="1" ht="58.5" customHeight="1">
       <c r="A49" s="7" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B49" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C49" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="C49" s="7" t="s">
-        <v>196</v>
-      </c>
       <c r="D49" s="7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="G49" s="7"/>
       <c r="H49" s="7"/>
@@ -6601,22 +6973,22 @@
     </row>
     <row r="50" spans="1:9" s="14" customFormat="1" ht="58.5" customHeight="1">
       <c r="A50" s="7" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B50" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C50" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="C50" s="7" t="s">
-        <v>196</v>
-      </c>
       <c r="D50" s="7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="G50" s="7"/>
       <c r="H50" s="7"/>
@@ -6624,22 +6996,22 @@
     </row>
     <row r="51" spans="1:9" s="14" customFormat="1" ht="58.5" customHeight="1">
       <c r="A51" s="7" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B51" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C51" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="C51" s="7" t="s">
-        <v>196</v>
-      </c>
       <c r="D51" s="7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="G51" s="7"/>
       <c r="H51" s="7"/>
@@ -6647,95 +7019,256 @@
     </row>
     <row r="52" spans="1:9" s="14" customFormat="1" ht="58.5" customHeight="1">
       <c r="A52" s="7" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B52" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C52" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="C52" s="7" t="s">
-        <v>196</v>
-      </c>
       <c r="D52" s="7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="G52" s="7"/>
       <c r="H52" s="7"/>
       <c r="I52" s="7"/>
     </row>
-    <row r="53" spans="1:9" s="14" customFormat="1" ht="66.75" customHeight="1">
+    <row r="53" spans="1:9" s="14" customFormat="1" ht="58.5" customHeight="1">
       <c r="A53" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="B53" s="41" t="s">
-        <v>376</v>
+        <v>333</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>194</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>374</v>
+        <v>195</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>375</v>
+        <v>357</v>
       </c>
       <c r="G53" s="7"/>
       <c r="H53" s="7"/>
       <c r="I53" s="7"/>
     </row>
-    <row r="54" spans="1:9" s="14" customFormat="1" ht="76.5" customHeight="1">
+    <row r="54" spans="1:9" s="14" customFormat="1" ht="58.5" customHeight="1">
       <c r="A54" s="7" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>376</v>
+        <v>194</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>379</v>
+        <v>195</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>381</v>
+        <v>358</v>
       </c>
       <c r="G54" s="7"/>
       <c r="H54" s="7"/>
       <c r="I54" s="7"/>
     </row>
-    <row r="55" spans="1:9" s="14" customFormat="1" ht="86.25" customHeight="1">
+    <row r="55" spans="1:9" s="14" customFormat="1" ht="58.5" customHeight="1">
       <c r="A55" s="7" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>376</v>
+        <v>194</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>378</v>
+        <v>195</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>382</v>
+        <v>359</v>
       </c>
       <c r="G55" s="7"/>
       <c r="H55" s="7"/>
       <c r="I55" s="7"/>
+    </row>
+    <row r="56" spans="1:9" s="14" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A56" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+    </row>
+    <row r="57" spans="1:9" s="14" customFormat="1" ht="66.75" customHeight="1">
+      <c r="A57" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="B57" s="41" t="s">
+        <v>374</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+    </row>
+    <row r="58" spans="1:9" s="14" customFormat="1" ht="76.5" customHeight="1">
+      <c r="A58" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
+    </row>
+    <row r="59" spans="1:9" s="14" customFormat="1" ht="86.25" customHeight="1">
+      <c r="A59" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7"/>
+    </row>
+    <row r="60" spans="1:9" s="14" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A60" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7"/>
+    </row>
+    <row r="61" spans="1:9" s="14" customFormat="1" ht="93.75" customHeight="1">
+      <c r="A61" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7"/>
+    </row>
+    <row r="62" spans="1:9" s="14" customFormat="1" ht="122.25" customHeight="1">
+      <c r="A62" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6747,7 +7280,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB53"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -6763,31 +7296,31 @@
   <sheetData>
     <row r="1" spans="1:17" ht="27" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:17" ht="27" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
     </row>
     <row r="3" spans="1:17" ht="16.5" customHeight="1" thickTop="1">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="32"/>
+      <c r="B3" s="22"/>
       <c r="C3" s="2" t="s">
         <v>20</v>
       </c>
@@ -7600,8 +8133,8 @@
       </c>
     </row>
     <row r="19" spans="1:54" s="3" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A19" s="29"/>
-      <c r="B19" s="30"/>
+      <c r="A19" s="33"/>
+      <c r="B19" s="34"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -7656,10 +8189,10 @@
       <c r="BB19" s="15"/>
     </row>
     <row r="20" spans="1:54" ht="16.5" customHeight="1">
-      <c r="A20" s="36" t="s">
+      <c r="A20" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="37"/>
+      <c r="B20" s="27"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -7714,10 +8247,10 @@
       <c r="BB20" s="15"/>
     </row>
     <row r="21" spans="1:54" ht="16.5" customHeight="1">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="25"/>
+      <c r="B21" s="29"/>
       <c r="C21" s="1" t="s">
         <v>47</v>
       </c>
@@ -7802,10 +8335,10 @@
       <c r="BB21" s="15"/>
     </row>
     <row r="22" spans="1:54" ht="16.5" customHeight="1">
-      <c r="A22" s="24" t="s">
+      <c r="A22" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="B22" s="25"/>
+      <c r="B22" s="29"/>
       <c r="C22" s="1" t="s">
         <v>47</v>
       </c>
@@ -7890,10 +8423,10 @@
       <c r="BB22" s="15"/>
     </row>
     <row r="23" spans="1:54" ht="16.5" customHeight="1">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="B23" s="25"/>
+      <c r="B23" s="29"/>
       <c r="C23" s="1" t="s">
         <v>47</v>
       </c>
@@ -7978,10 +8511,10 @@
       <c r="BB23" s="15"/>
     </row>
     <row r="24" spans="1:54" ht="16.5" customHeight="1">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="B24" s="25"/>
+      <c r="B24" s="29"/>
       <c r="C24" s="1" t="s">
         <v>47</v>
       </c>
@@ -8066,10 +8599,10 @@
       <c r="BB24" s="15"/>
     </row>
     <row r="25" spans="1:54" ht="16.5" customHeight="1">
-      <c r="A25" s="24" t="s">
+      <c r="A25" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="B25" s="25"/>
+      <c r="B25" s="29"/>
       <c r="C25" s="1" t="s">
         <v>47</v>
       </c>
@@ -8154,10 +8687,10 @@
       <c r="BB25" s="15"/>
     </row>
     <row r="26" spans="1:54" ht="16.5" customHeight="1">
-      <c r="A26" s="24" t="s">
+      <c r="A26" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="25"/>
+      <c r="B26" s="29"/>
       <c r="C26" s="1" t="s">
         <v>47</v>
       </c>
@@ -8242,10 +8775,10 @@
       <c r="BB26" s="15"/>
     </row>
     <row r="27" spans="1:54" ht="16.5" customHeight="1">
-      <c r="A27" s="24" t="s">
+      <c r="A27" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="25"/>
+      <c r="B27" s="29"/>
       <c r="C27" s="1" t="s">
         <v>47</v>
       </c>
@@ -8330,10 +8863,10 @@
       <c r="BB27" s="15"/>
     </row>
     <row r="28" spans="1:54" ht="16.5" customHeight="1">
-      <c r="A28" s="24" t="s">
+      <c r="A28" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="B28" s="25"/>
+      <c r="B28" s="29"/>
       <c r="C28" s="1" t="s">
         <v>47</v>
       </c>
@@ -8418,10 +8951,10 @@
       <c r="BB28" s="15"/>
     </row>
     <row r="29" spans="1:54" ht="16.5" customHeight="1">
-      <c r="A29" s="26" t="s">
+      <c r="A29" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="B29" s="27"/>
+      <c r="B29" s="31"/>
       <c r="C29" s="1" t="s">
         <v>47</v>
       </c>
@@ -8506,10 +9039,10 @@
       <c r="BB29" s="15"/>
     </row>
     <row r="30" spans="1:54" ht="16.5" customHeight="1">
-      <c r="A30" s="24" t="s">
+      <c r="A30" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="B30" s="25"/>
+      <c r="B30" s="29"/>
       <c r="C30" s="1" t="s">
         <v>47</v>
       </c>
@@ -8594,10 +9127,10 @@
       <c r="BB30" s="15"/>
     </row>
     <row r="31" spans="1:54" ht="16.5" customHeight="1">
-      <c r="A31" s="24" t="s">
+      <c r="A31" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="B31" s="25"/>
+      <c r="B31" s="29"/>
       <c r="C31" s="1" t="s">
         <v>47</v>
       </c>
@@ -8682,10 +9215,10 @@
       <c r="BB31" s="15"/>
     </row>
     <row r="32" spans="1:54" ht="16.5" customHeight="1">
-      <c r="A32" s="24" t="s">
+      <c r="A32" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="25"/>
+      <c r="B32" s="29"/>
       <c r="C32" s="1" t="s">
         <v>47</v>
       </c>
@@ -8770,10 +9303,10 @@
       <c r="BB32" s="15"/>
     </row>
     <row r="33" spans="1:54" ht="16.5" customHeight="1">
-      <c r="A33" s="24" t="s">
+      <c r="A33" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="B33" s="25"/>
+      <c r="B33" s="29"/>
       <c r="C33" s="1" t="s">
         <v>47</v>
       </c>
@@ -8858,10 +9391,10 @@
       <c r="BB33" s="15"/>
     </row>
     <row r="34" spans="1:54" ht="16.5" customHeight="1">
-      <c r="A34" s="26" t="s">
+      <c r="A34" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="B34" s="27"/>
+      <c r="B34" s="31"/>
       <c r="C34" s="1" t="s">
         <v>47</v>
       </c>
@@ -8946,10 +9479,10 @@
       <c r="BB34" s="15"/>
     </row>
     <row r="35" spans="1:54" s="3" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A35" s="28" t="s">
+      <c r="A35" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="B35" s="28"/>
+      <c r="B35" s="32"/>
       <c r="C35" s="5" t="s">
         <v>44</v>
       </c>
@@ -9034,10 +9567,10 @@
       <c r="BB35" s="15"/>
     </row>
     <row r="36" spans="1:54" s="3" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A36" s="28" t="s">
+      <c r="A36" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="B36" s="28"/>
+      <c r="B36" s="32"/>
       <c r="C36" s="5" t="s">
         <v>45</v>
       </c>
@@ -9122,18 +9655,18 @@
       <c r="BB36" s="15"/>
     </row>
     <row r="39" spans="1:54" ht="21.75" customHeight="1">
-      <c r="A39" s="23" t="s">
+      <c r="A39" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="B39" s="23"/>
-      <c r="C39" s="23" t="s">
+      <c r="B39" s="35"/>
+      <c r="C39" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="23"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="35"/>
     </row>
     <row r="40" spans="1:54" ht="21.75" customHeight="1">
       <c r="A40" s="2" t="s">
@@ -9142,14 +9675,14 @@
       <c r="B40" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C40" s="21" t="s">
+      <c r="C40" s="36" t="s">
         <v>189</v>
       </c>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="21"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
     </row>
     <row r="41" spans="1:54" ht="21.75" customHeight="1">
       <c r="A41" s="2" t="s">
@@ -9158,14 +9691,14 @@
       <c r="B41" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="22" t="s">
+      <c r="C41" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="22"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="37"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="37"/>
     </row>
     <row r="42" spans="1:54" ht="21.75" customHeight="1">
       <c r="A42" s="2" t="s">
@@ -9174,14 +9707,14 @@
       <c r="B42" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C42" s="21" t="s">
+      <c r="C42" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="21"/>
-      <c r="H42" s="21"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="36"/>
     </row>
     <row r="43" spans="1:54" ht="21.75" customHeight="1">
       <c r="A43" s="2" t="s">
@@ -9190,14 +9723,14 @@
       <c r="B43" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C43" s="21" t="s">
+      <c r="C43" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="21"/>
-      <c r="H43" s="21"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="36"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="36"/>
     </row>
     <row r="44" spans="1:54" ht="21.75" customHeight="1">
       <c r="A44" s="2" t="s">
@@ -9206,14 +9739,14 @@
       <c r="B44" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C44" s="21" t="s">
+      <c r="C44" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="21"/>
-      <c r="H44" s="21"/>
+      <c r="D44" s="36"/>
+      <c r="E44" s="36"/>
+      <c r="F44" s="36"/>
+      <c r="G44" s="36"/>
+      <c r="H44" s="36"/>
     </row>
     <row r="45" spans="1:54" ht="21.75" customHeight="1">
       <c r="A45" s="2" t="s">
@@ -9222,14 +9755,14 @@
       <c r="B45" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C45" s="21" t="s">
+      <c r="C45" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="21"/>
-      <c r="H45" s="21"/>
+      <c r="D45" s="36"/>
+      <c r="E45" s="36"/>
+      <c r="F45" s="36"/>
+      <c r="G45" s="36"/>
+      <c r="H45" s="36"/>
     </row>
     <row r="46" spans="1:54" ht="21.75" customHeight="1">
       <c r="A46" s="2" t="s">
@@ -9238,14 +9771,14 @@
       <c r="B46" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C46" s="21" t="s">
+      <c r="C46" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="21"/>
-      <c r="H46" s="21"/>
+      <c r="D46" s="36"/>
+      <c r="E46" s="36"/>
+      <c r="F46" s="36"/>
+      <c r="G46" s="36"/>
+      <c r="H46" s="36"/>
     </row>
     <row r="47" spans="1:54" ht="21.75" customHeight="1">
       <c r="A47" s="2" t="s">
@@ -9254,14 +9787,14 @@
       <c r="B47" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C47" s="22" t="s">
-        <v>336</v>
-      </c>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="22"/>
+      <c r="C47" s="37" t="s">
+        <v>334</v>
+      </c>
+      <c r="D47" s="37"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="37"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="37"/>
     </row>
     <row r="48" spans="1:54" ht="21.75" customHeight="1">
       <c r="A48" s="2" t="s">
@@ -9270,14 +9803,14 @@
       <c r="B48" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C48" s="21" t="s">
-        <v>191</v>
-      </c>
-      <c r="D48" s="21"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="21"/>
-      <c r="H48" s="21"/>
+      <c r="C48" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="D48" s="36"/>
+      <c r="E48" s="36"/>
+      <c r="F48" s="36"/>
+      <c r="G48" s="36"/>
+      <c r="H48" s="36"/>
     </row>
     <row r="49" spans="1:8" ht="21.75" customHeight="1">
       <c r="A49" s="2" t="s">
@@ -9286,14 +9819,14 @@
       <c r="B49" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C49" s="21">
+      <c r="C49" s="36">
         <v>1112222</v>
       </c>
-      <c r="D49" s="21"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="21"/>
-      <c r="H49" s="21"/>
+      <c r="D49" s="36"/>
+      <c r="E49" s="36"/>
+      <c r="F49" s="36"/>
+      <c r="G49" s="36"/>
+      <c r="H49" s="36"/>
     </row>
     <row r="50" spans="1:8" ht="21.75" customHeight="1">
       <c r="A50" s="2" t="s">
@@ -9302,14 +9835,14 @@
       <c r="B50" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C50" s="21">
+      <c r="C50" s="36">
         <v>11122223333</v>
       </c>
-      <c r="D50" s="21"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="21"/>
-      <c r="G50" s="21"/>
-      <c r="H50" s="21"/>
+      <c r="D50" s="36"/>
+      <c r="E50" s="36"/>
+      <c r="F50" s="36"/>
+      <c r="G50" s="36"/>
+      <c r="H50" s="36"/>
     </row>
     <row r="51" spans="1:8" ht="21.75" customHeight="1">
       <c r="A51" s="2" t="s">
@@ -9318,14 +9851,14 @@
       <c r="B51" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C51" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="D51" s="21"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="21"/>
-      <c r="H51" s="21"/>
+      <c r="C51" s="36" t="s">
+        <v>191</v>
+      </c>
+      <c r="D51" s="36"/>
+      <c r="E51" s="36"/>
+      <c r="F51" s="36"/>
+      <c r="G51" s="36"/>
+      <c r="H51" s="36"/>
     </row>
     <row r="52" spans="1:8" ht="21.75" customHeight="1">
       <c r="A52" s="2" t="s">
@@ -9334,14 +9867,14 @@
       <c r="B52" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C52" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="D52" s="21"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="21"/>
-      <c r="H52" s="21"/>
+      <c r="C52" s="36" t="s">
+        <v>192</v>
+      </c>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="36"/>
     </row>
     <row r="53" spans="1:8" ht="21.75" customHeight="1">
       <c r="A53" s="2" t="s">
@@ -9350,22 +9883,33 @@
       <c r="B53" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C53" s="21">
+      <c r="C53" s="36">
         <v>1234567</v>
       </c>
-      <c r="D53" s="21"/>
-      <c r="E53" s="21"/>
-      <c r="F53" s="21"/>
-      <c r="G53" s="21"/>
-      <c r="H53" s="21"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:Q2"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C50:H50"/>
+    <mergeCell ref="C51:H51"/>
+    <mergeCell ref="C52:H52"/>
+    <mergeCell ref="C53:H53"/>
+    <mergeCell ref="C41:H41"/>
+    <mergeCell ref="C44:H44"/>
+    <mergeCell ref="C45:H45"/>
+    <mergeCell ref="C46:H46"/>
+    <mergeCell ref="C47:H47"/>
+    <mergeCell ref="C48:H48"/>
+    <mergeCell ref="C49:H49"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:H39"/>
+    <mergeCell ref="C40:H40"/>
+    <mergeCell ref="C42:H42"/>
+    <mergeCell ref="C43:H43"/>
     <mergeCell ref="A34:B34"/>
     <mergeCell ref="A35:B35"/>
     <mergeCell ref="A36:B36"/>
@@ -9382,22 +9926,11 @@
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:H39"/>
-    <mergeCell ref="C40:H40"/>
-    <mergeCell ref="C42:H42"/>
-    <mergeCell ref="C43:H43"/>
-    <mergeCell ref="C50:H50"/>
-    <mergeCell ref="C51:H51"/>
-    <mergeCell ref="C52:H52"/>
-    <mergeCell ref="C53:H53"/>
-    <mergeCell ref="C41:H41"/>
-    <mergeCell ref="C44:H44"/>
-    <mergeCell ref="C45:H45"/>
-    <mergeCell ref="C46:H46"/>
-    <mergeCell ref="C47:H47"/>
-    <mergeCell ref="C48:H48"/>
-    <mergeCell ref="C49:H49"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:Q2"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9405,7 +9938,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9421,31 +9954,31 @@
   <sheetData>
     <row r="1" spans="1:30" ht="27" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:30" ht="27" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A2" s="33" t="s">
-        <v>240</v>
-      </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
+      <c r="A2" s="23" t="s">
+        <v>238</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
     </row>
     <row r="3" spans="1:30" ht="16.5" customHeight="1" thickTop="1">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="32"/>
+      <c r="B3" s="22"/>
       <c r="C3" s="2" t="s">
         <v>20</v>
       </c>
@@ -9486,7 +10019,7 @@
     </row>
     <row r="6" spans="1:30" ht="16.5" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>39</v>
@@ -9503,10 +10036,10 @@
     </row>
     <row r="7" spans="1:30" ht="16.5" customHeight="1">
       <c r="A7" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>242</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>244</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>72</v>
@@ -9523,7 +10056,7 @@
         <v>37</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>72</v>
@@ -9536,8 +10069,8 @@
       </c>
     </row>
     <row r="9" spans="1:30" s="3" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A9" s="29"/>
-      <c r="B9" s="30"/>
+      <c r="A9" s="33"/>
+      <c r="B9" s="34"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -9568,10 +10101,10 @@
       <c r="AD9" s="15"/>
     </row>
     <row r="10" spans="1:30" ht="16.5" customHeight="1">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="37"/>
+      <c r="B10" s="27"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -9602,10 +10135,10 @@
       <c r="AD10" s="15"/>
     </row>
     <row r="11" spans="1:30" ht="16.5" customHeight="1">
-      <c r="A11" s="24" t="s">
-        <v>245</v>
-      </c>
-      <c r="B11" s="25"/>
+      <c r="A11" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="B11" s="29"/>
       <c r="C11" s="1" t="s">
         <v>47</v>
       </c>
@@ -9642,18 +10175,18 @@
       <c r="AD11" s="15"/>
     </row>
     <row r="12" spans="1:30" ht="16.5" customHeight="1">
-      <c r="A12" s="24" t="s">
-        <v>246</v>
-      </c>
-      <c r="B12" s="25"/>
+      <c r="A12" s="28" t="s">
+        <v>244</v>
+      </c>
+      <c r="B12" s="29"/>
       <c r="C12" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
@@ -9682,10 +10215,10 @@
       <c r="AD12" s="15"/>
     </row>
     <row r="13" spans="1:30" s="3" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A13" s="28" t="s">
-        <v>247</v>
-      </c>
-      <c r="B13" s="28"/>
+      <c r="A13" s="32" t="s">
+        <v>245</v>
+      </c>
+      <c r="B13" s="32"/>
       <c r="C13" s="5" t="s">
         <v>71</v>
       </c>
@@ -9723,17 +10256,17 @@
     </row>
     <row r="14" spans="1:30" s="3" customFormat="1" ht="16.5" customHeight="1">
       <c r="A14" s="38" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B14" s="39"/>
       <c r="C14" s="5" t="s">
         <v>71</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
@@ -9762,12 +10295,12 @@
       <c r="AD14" s="15"/>
     </row>
     <row r="15" spans="1:30" s="3" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A15" s="28" t="s">
-        <v>249</v>
-      </c>
-      <c r="B15" s="28"/>
+      <c r="A15" s="32" t="s">
+        <v>247</v>
+      </c>
+      <c r="B15" s="32"/>
       <c r="C15" s="5" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>47</v>
@@ -9802,18 +10335,18 @@
       <c r="AD15" s="15"/>
     </row>
     <row r="18" spans="1:8" ht="21.75" customHeight="1">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23" t="s">
+      <c r="B18" s="35"/>
+      <c r="C18" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
     </row>
     <row r="19" spans="1:8" ht="21.75" customHeight="1">
       <c r="A19" s="2" t="s">
@@ -9822,40 +10355,40 @@
       <c r="B19" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="22" t="s">
-        <v>256</v>
-      </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
+      <c r="C19" s="37" t="s">
+        <v>254</v>
+      </c>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
     </row>
     <row r="20" spans="1:8" ht="21.75" customHeight="1">
       <c r="A20" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="21" t="s">
-        <v>257</v>
-      </c>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
+      <c r="C20" s="36" t="s">
+        <v>255</v>
+      </c>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
     </row>
     <row r="21" spans="1:8" ht="21.75" customHeight="1">
       <c r="A21" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C21" s="40" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D21" s="40"/>
       <c r="E21" s="40"/>
@@ -9865,19 +10398,19 @@
     </row>
     <row r="22" spans="1:8" ht="21.75" customHeight="1">
       <c r="A22" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C22" s="21">
+        <v>241</v>
+      </c>
+      <c r="C22" s="36">
         <v>12345678</v>
       </c>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
     </row>
     <row r="23" spans="1:8" ht="21.75" customHeight="1"/>
     <row r="24" spans="1:8" ht="21.75" customHeight="1"/>
@@ -9891,13 +10424,6 @@
     <row r="32" spans="1:8" ht="21.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:Q2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="C19:H19"/>
     <mergeCell ref="C21:H21"/>
@@ -9907,6 +10433,13 @@
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="C18:H18"/>
     <mergeCell ref="C20:H20"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:Q2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9914,11 +10447,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AH45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AH41"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27" customHeight="1"/>
@@ -9930,27 +10463,27 @@
   <sheetData>
     <row r="1" spans="1:34" ht="27" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:34" ht="27" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
     </row>
     <row r="3" spans="1:34" ht="16.5" customHeight="1" thickTop="1">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="32"/>
+      <c r="B3" s="22"/>
       <c r="C3" s="2" t="s">
         <v>20</v>
       </c>
@@ -10211,10 +10744,10 @@
     </row>
     <row r="10" spans="1:34" ht="16.5" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>55</v>
+        <v>399</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>40</v>
@@ -10252,10 +10785,10 @@
     </row>
     <row r="11" spans="1:34" ht="16.5" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>57</v>
@@ -10296,7 +10829,7 @@
         <v>34</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>57</v>
@@ -10375,10 +10908,10 @@
     </row>
     <row r="14" spans="1:34" ht="16.5" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>57</v>
@@ -10415,8 +10948,8 @@
       </c>
     </row>
     <row r="15" spans="1:34" s="3" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A15" s="29"/>
-      <c r="B15" s="30"/>
+      <c r="A15" s="33"/>
+      <c r="B15" s="34"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -10451,10 +10984,10 @@
       <c r="AH15" s="15"/>
     </row>
     <row r="16" spans="1:34" ht="16.5" customHeight="1">
-      <c r="A16" s="36" t="s">
+      <c r="A16" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="37"/>
+      <c r="B16" s="27"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -10489,10 +11022,10 @@
       <c r="AH16" s="15"/>
     </row>
     <row r="17" spans="1:34" ht="16.5" customHeight="1">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="25"/>
+      <c r="B17" s="29"/>
       <c r="C17" s="1" t="s">
         <v>47</v>
       </c>
@@ -10549,10 +11082,10 @@
       <c r="AH17" s="15"/>
     </row>
     <row r="18" spans="1:34" ht="16.5" customHeight="1">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="B18" s="25"/>
+      <c r="B18" s="29"/>
       <c r="C18" s="1" t="s">
         <v>47</v>
       </c>
@@ -10609,10 +11142,10 @@
       <c r="AH18" s="15"/>
     </row>
     <row r="19" spans="1:34" ht="16.5" customHeight="1">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="B19" s="25"/>
+      <c r="B19" s="29"/>
       <c r="C19" s="1" t="s">
         <v>47</v>
       </c>
@@ -10669,10 +11202,10 @@
       <c r="AH19" s="15"/>
     </row>
     <row r="20" spans="1:34" ht="16.5" customHeight="1">
-      <c r="A20" s="24" t="s">
+      <c r="A20" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="B20" s="25"/>
+      <c r="B20" s="29"/>
       <c r="C20" s="1" t="s">
         <v>47</v>
       </c>
@@ -10729,10 +11262,10 @@
       <c r="AH20" s="15"/>
     </row>
     <row r="21" spans="1:34" ht="16.5" customHeight="1">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="25"/>
+      <c r="B21" s="29"/>
       <c r="C21" s="1" t="s">
         <v>47</v>
       </c>
@@ -10789,10 +11322,10 @@
       <c r="AH21" s="15"/>
     </row>
     <row r="22" spans="1:34" ht="16.5" customHeight="1">
-      <c r="A22" s="24" t="s">
-        <v>342</v>
-      </c>
-      <c r="B22" s="25"/>
+      <c r="A22" s="28" t="s">
+        <v>340</v>
+      </c>
+      <c r="B22" s="29"/>
       <c r="C22" s="1" t="s">
         <v>47</v>
       </c>
@@ -10849,10 +11382,10 @@
       <c r="AH22" s="15"/>
     </row>
     <row r="23" spans="1:34" ht="16.5" customHeight="1">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="B23" s="27"/>
+      <c r="B23" s="31"/>
       <c r="C23" s="1" t="s">
         <v>47</v>
       </c>
@@ -10875,7 +11408,7 @@
         <v>47</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>47</v>
@@ -10909,10 +11442,10 @@
       <c r="AH23" s="15"/>
     </row>
     <row r="24" spans="1:34" ht="16.5" customHeight="1">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="B24" s="25"/>
+      <c r="B24" s="29"/>
       <c r="C24" s="1" t="s">
         <v>47</v>
       </c>
@@ -10938,7 +11471,7 @@
         <v>47</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>47</v>
@@ -10969,10 +11502,10 @@
       <c r="AH24" s="15"/>
     </row>
     <row r="25" spans="1:34" ht="16.5" customHeight="1">
-      <c r="A25" s="24" t="s">
+      <c r="A25" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="B25" s="25"/>
+      <c r="B25" s="29"/>
       <c r="C25" s="1" t="s">
         <v>47</v>
       </c>
@@ -11029,10 +11562,10 @@
       <c r="AH25" s="15"/>
     </row>
     <row r="26" spans="1:34" ht="16.5" customHeight="1">
-      <c r="A26" s="24" t="s">
-        <v>343</v>
-      </c>
-      <c r="B26" s="25"/>
+      <c r="A26" s="28" t="s">
+        <v>341</v>
+      </c>
+      <c r="B26" s="29"/>
       <c r="C26" s="1" t="s">
         <v>47</v>
       </c>
@@ -11089,10 +11622,10 @@
       <c r="AH26" s="15"/>
     </row>
     <row r="27" spans="1:34" s="3" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A27" s="28" t="s">
-        <v>344</v>
-      </c>
-      <c r="B27" s="28"/>
+      <c r="A27" s="32" t="s">
+        <v>342</v>
+      </c>
+      <c r="B27" s="32"/>
       <c r="C27" s="5" t="s">
         <v>44</v>
       </c>
@@ -11150,7 +11683,7 @@
     </row>
     <row r="28" spans="1:34" s="3" customFormat="1" ht="16.5" customHeight="1">
       <c r="A28" s="38" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B28" s="39"/>
       <c r="C28" s="5" t="s">
@@ -11209,18 +11742,18 @@
       <c r="AH28" s="15"/>
     </row>
     <row r="31" spans="1:34" ht="21.75" customHeight="1">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23" t="s">
+      <c r="B31" s="35"/>
+      <c r="C31" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
     </row>
     <row r="32" spans="1:34" ht="21.75" customHeight="1">
       <c r="A32" s="2" t="s">
@@ -11229,14 +11762,14 @@
       <c r="B32" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="21" t="s">
+      <c r="C32" s="36" t="s">
         <v>189</v>
       </c>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
     </row>
     <row r="33" spans="1:8" ht="21.75" customHeight="1">
       <c r="A33" s="2" t="s">
@@ -11245,14 +11778,14 @@
       <c r="B33" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="22" t="s">
+      <c r="C33" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="37"/>
     </row>
     <row r="34" spans="1:8" ht="21.75" customHeight="1">
       <c r="A34" s="2" t="s">
@@ -11261,14 +11794,14 @@
       <c r="B34" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C34" s="21" t="s">
+      <c r="C34" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
     </row>
     <row r="35" spans="1:8" ht="21.75" customHeight="1">
       <c r="A35" s="2" t="s">
@@ -11277,14 +11810,14 @@
       <c r="B35" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C35" s="21" t="s">
+      <c r="C35" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
     </row>
     <row r="36" spans="1:8" ht="21.75" customHeight="1">
       <c r="A36" s="2" t="s">
@@ -11293,177 +11826,101 @@
       <c r="B36" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C36" s="21" t="s">
+      <c r="C36" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
     </row>
     <row r="37" spans="1:8" ht="21.75" customHeight="1">
       <c r="A37" s="2" t="s">
-        <v>37</v>
+        <v>335</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C37" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
+        <v>399</v>
+      </c>
+      <c r="C37" s="36" t="s">
+        <v>400</v>
+      </c>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
     </row>
     <row r="38" spans="1:8" ht="21.75" customHeight="1">
       <c r="A38" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C38" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
+        <v>337</v>
+      </c>
+      <c r="C38" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="D38" s="36"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
     </row>
     <row r="39" spans="1:8" ht="21.75" customHeight="1">
       <c r="A39" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C39" s="22" t="s">
-        <v>190</v>
-      </c>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="22"/>
+        <v>338</v>
+      </c>
+      <c r="C39" s="37">
+        <v>1112222</v>
+      </c>
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="37"/>
     </row>
     <row r="40" spans="1:8" ht="21.75" customHeight="1">
       <c r="A40" s="2" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C40" s="21" t="s">
-        <v>191</v>
-      </c>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="21"/>
+        <v>52</v>
+      </c>
+      <c r="C40" s="36">
+        <v>11122223333</v>
+      </c>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
     </row>
     <row r="41" spans="1:8" ht="21.75" customHeight="1">
       <c r="A41" s="2" t="s">
-        <v>34</v>
+        <v>335</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C41" s="21">
-        <v>1112222</v>
-      </c>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="21"/>
-      <c r="H41" s="21"/>
-    </row>
-    <row r="42" spans="1:8" ht="21.75" customHeight="1">
-      <c r="A42" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C42" s="21">
-        <v>11122223333</v>
-      </c>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="21"/>
-      <c r="H42" s="21"/>
-    </row>
-    <row r="43" spans="1:8" ht="21.75" customHeight="1">
-      <c r="A43" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C43" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="21"/>
-      <c r="H43" s="21"/>
-    </row>
-    <row r="44" spans="1:8" ht="21.75" customHeight="1">
-      <c r="A44" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C44" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="21"/>
-      <c r="H44" s="21"/>
-    </row>
-    <row r="45" spans="1:8" ht="21.75" customHeight="1">
-      <c r="A45" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C45" s="21">
-        <v>1234567</v>
-      </c>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="21"/>
-      <c r="H45" s="21"/>
+        <v>339</v>
+      </c>
+      <c r="C41" s="36" t="s">
+        <v>401</v>
+      </c>
+      <c r="D41" s="36"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:M2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
+  <mergeCells count="29">
+    <mergeCell ref="C39:H39"/>
     <mergeCell ref="C38:H38"/>
+    <mergeCell ref="C40:H40"/>
+    <mergeCell ref="C41:H41"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A31:B31"/>
@@ -11474,13 +11931,21 @@
     <mergeCell ref="C35:H35"/>
     <mergeCell ref="C36:H36"/>
     <mergeCell ref="C37:H37"/>
-    <mergeCell ref="C45:H45"/>
-    <mergeCell ref="C39:H39"/>
-    <mergeCell ref="C40:H40"/>
-    <mergeCell ref="C41:H41"/>
-    <mergeCell ref="C42:H42"/>
-    <mergeCell ref="C43:H43"/>
-    <mergeCell ref="C44:H44"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:M2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11488,7 +11953,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A110"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
